--- a/LDDiagrams/toys.xlsx
+++ b/LDDiagrams/toys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waled\Desktop\LittleDreamers\LDDiagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\LD\LDDiagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF702A1-4332-4CF0-B77B-5642B8336F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEBFDE7-4442-4F92-BF4F-604FDDB1C257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="toys - Copy" sheetId="1" r:id="rId1"/>
@@ -7632,7 +7632,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7818,6 +7818,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -7979,12 +7985,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8345,7 +8354,7 @@
   <dimension ref="A1:S752"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8379,7 +8388,7 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -8391,10 +8400,10 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -8403,19 +8412,19 @@
       <c r="K1" s="1" t="s">
         <v>2483</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>2484</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>2485</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>2486</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>2487</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>2488</v>
       </c>
     </row>
@@ -45971,5 +45980,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LDDiagrams/toys.xlsx
+++ b/LDDiagrams/toys.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\LD\LDDiagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waled\Desktop\LittleDreamers\LDDiagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEBFDE7-4442-4F92-BF4F-604FDDB1C257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC439EA-E203-412A-9E1B-0EC5B5737E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="toys - Copy" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6024" uniqueCount="2489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6016" uniqueCount="2486">
   <si>
     <t>id</t>
   </si>
@@ -6974,15 +6974,6 @@
   </si>
   <si>
     <t>Conquer ninja challenges with the Ninja Warrior Challenge Obstacle</t>
-  </si>
-  <si>
-    <t>Futuristic Battle Robot Arena</t>
-  </si>
-  <si>
-    <t>futuristic_battle_robot_arena.jpg</t>
-  </si>
-  <si>
-    <t>Battle in a futuristic arena with the Futuristic Battle Robot Arena</t>
   </si>
   <si>
     <t>Fat Brain Toys</t>
@@ -8351,10 +8342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S752"/>
+  <dimension ref="A1:S751"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A734" workbookViewId="0">
+      <selection activeCell="D753" sqref="D753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8407,25 +8398,25 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2481</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>2482</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>2483</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>2484</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>2485</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>2486</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>2487</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>2488</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -8457,10 +8448,10 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="K2" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L2" s="2">
         <v>4</v>
@@ -8507,10 +8498,10 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="K3" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L3" s="2">
         <v>2</v>
@@ -8557,10 +8548,10 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="K4" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L4" s="2">
         <v>5</v>
@@ -8607,10 +8598,10 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="K5" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L5" s="2">
         <v>4</v>
@@ -8657,10 +8648,10 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="K6" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L6" s="2">
         <v>3</v>
@@ -8707,10 +8698,10 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="K7" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L7" s="2">
         <v>5</v>
@@ -8757,10 +8748,10 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="K8" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L8" s="2">
         <v>2</v>
@@ -8807,10 +8798,10 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="K9" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L9" s="2">
         <v>4</v>
@@ -8857,10 +8848,10 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="K10" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L10" s="2">
         <v>3</v>
@@ -8907,10 +8898,10 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="K11" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L11" s="2">
         <v>4</v>
@@ -8957,10 +8948,10 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="K12" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -9007,10 +8998,10 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="K13" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L13" s="2">
         <v>3</v>
@@ -9057,10 +9048,10 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="K14" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L14" s="2">
         <v>4</v>
@@ -9107,10 +9098,10 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="K15" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L15" s="2">
         <v>3</v>
@@ -9157,10 +9148,10 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="K16" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L16" s="2">
         <v>4</v>
@@ -9207,10 +9198,10 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="K17" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L17" s="2">
         <v>5</v>
@@ -9257,10 +9248,10 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="K18" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L18" s="2">
         <v>3</v>
@@ -9307,10 +9298,10 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="K19" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L19" s="2">
         <v>2</v>
@@ -9357,10 +9348,10 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="K20" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L20" s="2">
         <v>5</v>
@@ -9407,10 +9398,10 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="K21" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L21" s="2">
         <v>2</v>
@@ -9457,10 +9448,10 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="K22" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L22" s="2">
         <v>4</v>
@@ -9507,10 +9498,10 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="K23" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L23" s="2">
         <v>3</v>
@@ -9557,10 +9548,10 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K24" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L24" s="2">
         <v>4</v>
@@ -9607,10 +9598,10 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="K25" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L25" s="2">
         <v>3</v>
@@ -9657,10 +9648,10 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="K26" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L26" s="2">
         <v>2</v>
@@ -9707,10 +9698,10 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="K27" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L27" s="2">
         <v>3</v>
@@ -9757,10 +9748,10 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="K28" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L28" s="2">
         <v>3</v>
@@ -9807,10 +9798,10 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="K29" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L29" s="2">
         <v>2</v>
@@ -9857,10 +9848,10 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="K30" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L30" s="2">
         <v>2</v>
@@ -9907,10 +9898,10 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="K31" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L31" s="2">
         <v>4</v>
@@ -9957,10 +9948,10 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="K32" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L32" s="2">
         <v>5</v>
@@ -10007,10 +9998,10 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K33" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L33" s="2">
         <v>2</v>
@@ -10057,10 +10048,10 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="K34" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L34" s="2">
         <v>3</v>
@@ -10107,10 +10098,10 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="K35" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L35" s="2">
         <v>3</v>
@@ -10157,10 +10148,10 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="K36" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L36" s="2">
         <v>3</v>
@@ -10207,10 +10198,10 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="K37" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L37" s="2">
         <v>3</v>
@@ -10257,10 +10248,10 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="K38" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L38" s="2">
         <v>2</v>
@@ -10307,10 +10298,10 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="K39" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L39" s="2">
         <v>4</v>
@@ -10357,10 +10348,10 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="K40" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L40" s="2">
         <v>3</v>
@@ -10407,10 +10398,10 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="K41" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L41" s="2">
         <v>5</v>
@@ -10457,10 +10448,10 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="K42" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L42" s="2">
         <v>5</v>
@@ -10507,10 +10498,10 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="K43" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L43" s="2">
         <v>4</v>
@@ -10557,10 +10548,10 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="K44" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L44" s="2">
         <v>3</v>
@@ -10607,10 +10598,10 @@
         <v>182</v>
       </c>
       <c r="J45" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="K45" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L45" s="2">
         <v>3</v>
@@ -10657,10 +10648,10 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="K46" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L46" s="2">
         <v>4</v>
@@ -10707,10 +10698,10 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="K47" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L47" s="2">
         <v>2</v>
@@ -10757,10 +10748,10 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="K48" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L48" s="2">
         <v>4</v>
@@ -10807,10 +10798,10 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="K49" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L49" s="2">
         <v>3</v>
@@ -10857,10 +10848,10 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="K50" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L50" s="2">
         <v>3</v>
@@ -10907,10 +10898,10 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="K51" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L51" s="2">
         <v>4</v>
@@ -10957,10 +10948,10 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="K52" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L52" s="2">
         <v>3</v>
@@ -11007,10 +10998,10 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="K53" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L53" s="2">
         <v>2</v>
@@ -11057,10 +11048,10 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="K54" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L54" s="2">
         <v>5</v>
@@ -11107,10 +11098,10 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="K55" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L55" s="2">
         <v>3</v>
@@ -11157,10 +11148,10 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="K56" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L56" s="2">
         <v>4</v>
@@ -11207,10 +11198,10 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="K57" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L57" s="2">
         <v>3</v>
@@ -11257,10 +11248,10 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="K58" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L58" s="2">
         <v>3</v>
@@ -11307,10 +11298,10 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="K59" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L59" s="2">
         <v>4</v>
@@ -11357,10 +11348,10 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="K60" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L60" s="2">
         <v>2</v>
@@ -11407,10 +11398,10 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="K61" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L61" s="2">
         <v>4</v>
@@ -11457,10 +11448,10 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="K62" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L62" s="2">
         <v>4</v>
@@ -11507,10 +11498,10 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="K63" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L63" s="2">
         <v>3</v>
@@ -11557,10 +11548,10 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="K64" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L64" s="2">
         <v>5</v>
@@ -11607,10 +11598,10 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="K65" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L65" s="2">
         <v>3</v>
@@ -11657,10 +11648,10 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="K66" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L66" s="2">
         <v>2</v>
@@ -11707,10 +11698,10 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K67" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L67" s="2">
         <v>3</v>
@@ -11757,10 +11748,10 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="K68" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L68" s="2">
         <v>4</v>
@@ -11807,10 +11798,10 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="K69" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L69" s="2">
         <v>4</v>
@@ -11857,10 +11848,10 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="K70" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L70" s="2">
         <v>2</v>
@@ -11907,10 +11898,10 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="K71" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L71" s="2">
         <v>3</v>
@@ -11957,10 +11948,10 @@
         <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="K72" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L72" s="2">
         <v>3</v>
@@ -12007,10 +11998,10 @@
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="K73" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L73" s="2">
         <v>4</v>
@@ -12057,10 +12048,10 @@
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="K74" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L74" s="2">
         <v>3</v>
@@ -12107,10 +12098,10 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="K75" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L75" s="2">
         <v>2</v>
@@ -12157,10 +12148,10 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K76" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L76" s="2">
         <v>4</v>
@@ -12207,10 +12198,10 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="K77" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L77" s="2">
         <v>3</v>
@@ -12257,10 +12248,10 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="K78" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L78" s="2">
         <v>4</v>
@@ -12307,10 +12298,10 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="K79" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L79" s="2">
         <v>3</v>
@@ -12357,10 +12348,10 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="K80" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L80" s="2">
         <v>5</v>
@@ -12407,10 +12398,10 @@
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="K81" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L81" s="2">
         <v>2</v>
@@ -12457,10 +12448,10 @@
         <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="K82" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L82" s="2">
         <v>3</v>
@@ -12507,10 +12498,10 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="K83" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L83" s="2">
         <v>3</v>
@@ -12557,10 +12548,10 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="K84" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L84" s="2">
         <v>4</v>
@@ -12607,10 +12598,10 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="K85" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L85" s="2">
         <v>4</v>
@@ -12657,10 +12648,10 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="K86" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L86" s="2">
         <v>3</v>
@@ -12707,10 +12698,10 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="K87" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L87" s="2">
         <v>4</v>
@@ -12757,10 +12748,10 @@
         <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="K88" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L88" s="2">
         <v>4</v>
@@ -12807,10 +12798,10 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="K89" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L89" s="2">
         <v>2</v>
@@ -12857,10 +12848,10 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="K90" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L90" s="2">
         <v>3</v>
@@ -12907,10 +12898,10 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="K91" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L91" s="2">
         <v>4</v>
@@ -12957,10 +12948,10 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="K92" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L92" s="2">
         <v>3</v>
@@ -13007,10 +12998,10 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="K93" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L93" s="2">
         <v>3</v>
@@ -13057,10 +13048,10 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="K94" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L94" s="2">
         <v>4</v>
@@ -13107,10 +13098,10 @@
         <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="K95" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L95" s="2">
         <v>2</v>
@@ -13157,10 +13148,10 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="K96" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L96" s="2">
         <v>4</v>
@@ -13207,10 +13198,10 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="K97" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L97" s="2">
         <v>3</v>
@@ -13257,10 +13248,10 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="K98" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L98" s="2">
         <v>5</v>
@@ -13307,10 +13298,10 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="K99" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L99" s="2">
         <v>2</v>
@@ -13357,10 +13348,10 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="K100" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L100" s="2">
         <v>5</v>
@@ -13407,10 +13398,10 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="K101" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L101" s="2">
         <v>3</v>
@@ -13457,10 +13448,10 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K102" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L102" s="2">
         <v>3</v>
@@ -13507,10 +13498,10 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="K103" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L103" s="2">
         <v>3</v>
@@ -13557,10 +13548,10 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="K104" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L104" s="2">
         <v>3</v>
@@ -13607,10 +13598,10 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="K105" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L105" s="2">
         <v>2</v>
@@ -13657,10 +13648,10 @@
         <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="K106" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L106" s="2">
         <v>2</v>
@@ -13707,10 +13698,10 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="K107" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L107" s="2">
         <v>3</v>
@@ -13757,10 +13748,10 @@
         <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="K108" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L108" s="2">
         <v>3</v>
@@ -13807,10 +13798,10 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="K109" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L109" s="2">
         <v>4</v>
@@ -13857,10 +13848,10 @@
         <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="K110" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L110" s="2">
         <v>3</v>
@@ -13907,10 +13898,10 @@
         <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="K111" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L111" s="2">
         <v>4</v>
@@ -13957,10 +13948,10 @@
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="K112" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L112" s="2">
         <v>2</v>
@@ -14007,10 +13998,10 @@
         <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="K113" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L113" s="2">
         <v>3</v>
@@ -14057,10 +14048,10 @@
         <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="K114" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L114" s="2">
         <v>4</v>
@@ -14107,10 +14098,10 @@
         <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="K115" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L115" s="2">
         <v>3</v>
@@ -14157,10 +14148,10 @@
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="K116" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L116" s="2">
         <v>2</v>
@@ -14207,10 +14198,10 @@
         <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="K117" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L117" s="2">
         <v>4</v>
@@ -14257,10 +14248,10 @@
         <v>14</v>
       </c>
       <c r="J118" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="K118" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L118" s="2">
         <v>3</v>
@@ -14307,10 +14298,10 @@
         <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="K119" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L119" s="2">
         <v>3</v>
@@ -14357,10 +14348,10 @@
         <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="K120" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L120" s="2">
         <v>2</v>
@@ -14407,10 +14398,10 @@
         <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="K121" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L121" s="2">
         <v>4</v>
@@ -14457,10 +14448,10 @@
         <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="K122" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L122" s="2">
         <v>3</v>
@@ -14507,10 +14498,10 @@
         <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="K123" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L123" s="2">
         <v>2</v>
@@ -14557,10 +14548,10 @@
         <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="K124" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L124" s="2">
         <v>4</v>
@@ -14607,10 +14598,10 @@
         <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="K125" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L125" s="2">
         <v>2</v>
@@ -14657,10 +14648,10 @@
         <v>14</v>
       </c>
       <c r="J126" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="K126" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L126" s="2">
         <v>2</v>
@@ -14707,10 +14698,10 @@
         <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="K127" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L127" s="2">
         <v>4</v>
@@ -14757,10 +14748,10 @@
         <v>182</v>
       </c>
       <c r="J128" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="K128" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L128" s="2">
         <v>3</v>
@@ -14807,10 +14798,10 @@
         <v>438</v>
       </c>
       <c r="J129" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="K129" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L129" s="2">
         <v>3</v>
@@ -14857,10 +14848,10 @@
         <v>438</v>
       </c>
       <c r="J130" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="K130" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L130" s="2">
         <v>4</v>
@@ -14907,10 +14898,10 @@
         <v>182</v>
       </c>
       <c r="J131" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="K131" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L131" s="2">
         <v>4</v>
@@ -14957,10 +14948,10 @@
         <v>438</v>
       </c>
       <c r="J132" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K132" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L132" s="2">
         <v>3</v>
@@ -15007,10 +14998,10 @@
         <v>438</v>
       </c>
       <c r="J133" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="K133" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L133" s="2">
         <v>4</v>
@@ -15057,10 +15048,10 @@
         <v>182</v>
       </c>
       <c r="J134" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="K134" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L134" s="2">
         <v>2</v>
@@ -15107,10 +15098,10 @@
         <v>438</v>
       </c>
       <c r="J135" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="K135" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L135" s="2">
         <v>4</v>
@@ -15157,10 +15148,10 @@
         <v>182</v>
       </c>
       <c r="J136" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="K136" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L136" s="2">
         <v>2</v>
@@ -15207,10 +15198,10 @@
         <v>438</v>
       </c>
       <c r="J137" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="K137" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L137" s="2">
         <v>3</v>
@@ -15257,10 +15248,10 @@
         <v>438</v>
       </c>
       <c r="J138" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="K138" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L138" s="2">
         <v>3</v>
@@ -15307,10 +15298,10 @@
         <v>182</v>
       </c>
       <c r="J139" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="K139" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L139" s="2">
         <v>2</v>
@@ -15357,10 +15348,10 @@
         <v>438</v>
       </c>
       <c r="J140" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="K140" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L140" s="2">
         <v>4</v>
@@ -15407,10 +15398,10 @@
         <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="K141" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L141" s="2">
         <v>3</v>
@@ -15457,10 +15448,10 @@
         <v>438</v>
       </c>
       <c r="J142" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="K142" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L142" s="2">
         <v>4</v>
@@ -15507,10 +15498,10 @@
         <v>438</v>
       </c>
       <c r="J143" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="K143" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L143" s="2">
         <v>5</v>
@@ -15557,10 +15548,10 @@
         <v>438</v>
       </c>
       <c r="J144" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K144" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L144" s="2">
         <v>3</v>
@@ -15607,10 +15598,10 @@
         <v>14</v>
       </c>
       <c r="J145" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="K145" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L145" s="2">
         <v>4</v>
@@ -15657,10 +15648,10 @@
         <v>182</v>
       </c>
       <c r="J146" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="K146" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L146" s="2">
         <v>2</v>
@@ -15707,10 +15698,10 @@
         <v>14</v>
       </c>
       <c r="J147" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="K147" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L147" s="2">
         <v>4</v>
@@ -15757,10 +15748,10 @@
         <v>438</v>
       </c>
       <c r="J148" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="K148" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L148" s="2">
         <v>3</v>
@@ -15807,10 +15798,10 @@
         <v>182</v>
       </c>
       <c r="J149" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="K149" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L149" s="2">
         <v>3</v>
@@ -15857,10 +15848,10 @@
         <v>438</v>
       </c>
       <c r="J150" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="K150" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L150" s="2">
         <v>4</v>
@@ -15907,10 +15898,10 @@
         <v>438</v>
       </c>
       <c r="J151" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="K151" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L151" s="2">
         <v>4</v>
@@ -15957,10 +15948,10 @@
         <v>182</v>
       </c>
       <c r="J152" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="K152" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L152" s="2">
         <v>3</v>
@@ -16007,10 +15998,10 @@
         <v>182</v>
       </c>
       <c r="J153" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="K153" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L153" s="2">
         <v>3</v>
@@ -16057,10 +16048,10 @@
         <v>438</v>
       </c>
       <c r="J154" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="K154" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L154" s="2">
         <v>3</v>
@@ -16107,10 +16098,10 @@
         <v>438</v>
       </c>
       <c r="J155" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="K155" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L155" s="2">
         <v>2</v>
@@ -16157,10 +16148,10 @@
         <v>438</v>
       </c>
       <c r="J156" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="K156" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L156" s="2">
         <v>4</v>
@@ -16207,10 +16198,10 @@
         <v>182</v>
       </c>
       <c r="J157" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="K157" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L157" s="2">
         <v>3</v>
@@ -16257,10 +16248,10 @@
         <v>438</v>
       </c>
       <c r="J158" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="K158" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L158" s="2">
         <v>5</v>
@@ -16307,10 +16298,10 @@
         <v>14</v>
       </c>
       <c r="J159" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="K159" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L159" s="2">
         <v>4</v>
@@ -16357,10 +16348,10 @@
         <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="K160" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L160" s="2">
         <v>5</v>
@@ -16407,10 +16398,10 @@
         <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="K161" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L161" s="2">
         <v>4</v>
@@ -16457,10 +16448,10 @@
         <v>14</v>
       </c>
       <c r="J162" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="K162" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L162" s="2">
         <v>3</v>
@@ -16507,10 +16498,10 @@
         <v>14</v>
       </c>
       <c r="J163" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="K163" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L163" s="2">
         <v>4</v>
@@ -16557,10 +16548,10 @@
         <v>14</v>
       </c>
       <c r="J164" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="K164" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L164" s="2">
         <v>4</v>
@@ -16607,10 +16598,10 @@
         <v>14</v>
       </c>
       <c r="J165" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="K165" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L165" s="2">
         <v>3</v>
@@ -16657,10 +16648,10 @@
         <v>14</v>
       </c>
       <c r="J166" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="K166" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L166" s="2">
         <v>5</v>
@@ -16707,10 +16698,10 @@
         <v>14</v>
       </c>
       <c r="J167" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="K167" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L167" s="2">
         <v>2</v>
@@ -16757,10 +16748,10 @@
         <v>14</v>
       </c>
       <c r="J168" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="K168" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L168" s="2">
         <v>3</v>
@@ -16807,10 +16798,10 @@
         <v>14</v>
       </c>
       <c r="J169" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="K169" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L169" s="2">
         <v>3</v>
@@ -16857,10 +16848,10 @@
         <v>14</v>
       </c>
       <c r="J170" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="K170" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L170" s="2">
         <v>4</v>
@@ -16907,10 +16898,10 @@
         <v>14</v>
       </c>
       <c r="J171" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="K171" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L171" s="2">
         <v>4</v>
@@ -16957,10 +16948,10 @@
         <v>14</v>
       </c>
       <c r="J172" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="K172" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L172" s="2">
         <v>3</v>
@@ -17007,10 +16998,10 @@
         <v>14</v>
       </c>
       <c r="J173" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="K173" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L173" s="2">
         <v>4</v>
@@ -17057,10 +17048,10 @@
         <v>14</v>
       </c>
       <c r="J174" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="K174" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L174" s="2">
         <v>4</v>
@@ -17107,10 +17098,10 @@
         <v>14</v>
       </c>
       <c r="J175" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K175" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L175" s="2">
         <v>2</v>
@@ -17157,10 +17148,10 @@
         <v>14</v>
       </c>
       <c r="J176" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="K176" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L176" s="2">
         <v>3</v>
@@ -17207,10 +17198,10 @@
         <v>14</v>
       </c>
       <c r="J177" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="K177" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L177" s="2">
         <v>4</v>
@@ -17257,10 +17248,10 @@
         <v>14</v>
       </c>
       <c r="J178" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="K178" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L178" s="2">
         <v>3</v>
@@ -17307,10 +17298,10 @@
         <v>14</v>
       </c>
       <c r="J179" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="K179" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L179" s="2">
         <v>3</v>
@@ -17357,10 +17348,10 @@
         <v>14</v>
       </c>
       <c r="J180" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="K180" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L180" s="2">
         <v>2</v>
@@ -17407,10 +17398,10 @@
         <v>14</v>
       </c>
       <c r="J181" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="K181" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L181" s="2">
         <v>3</v>
@@ -17457,10 +17448,10 @@
         <v>182</v>
       </c>
       <c r="J182" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="K182" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L182" s="2">
         <v>5</v>
@@ -17507,10 +17498,10 @@
         <v>182</v>
       </c>
       <c r="J183" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="K183" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L183" s="2">
         <v>4</v>
@@ -17557,10 +17548,10 @@
         <v>438</v>
       </c>
       <c r="J184" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="K184" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L184" s="2">
         <v>5</v>
@@ -17607,10 +17598,10 @@
         <v>14</v>
       </c>
       <c r="J185" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="K185" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L185" s="2">
         <v>4</v>
@@ -17657,10 +17648,10 @@
         <v>14</v>
       </c>
       <c r="J186" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="K186" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L186" s="2">
         <v>3</v>
@@ -17707,10 +17698,10 @@
         <v>438</v>
       </c>
       <c r="J187" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="K187" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L187" s="2">
         <v>4</v>
@@ -17757,10 +17748,10 @@
         <v>14</v>
       </c>
       <c r="J188" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="K188" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L188" s="2">
         <v>4</v>
@@ -17807,10 +17798,10 @@
         <v>182</v>
       </c>
       <c r="J189" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="K189" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L189" s="2">
         <v>2</v>
@@ -17857,10 +17848,10 @@
         <v>14</v>
       </c>
       <c r="J190" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="K190" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L190" s="2">
         <v>3</v>
@@ -17907,10 +17898,10 @@
         <v>438</v>
       </c>
       <c r="J191" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="K191" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L191" s="2">
         <v>3</v>
@@ -17957,10 +17948,10 @@
         <v>182</v>
       </c>
       <c r="J192" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="K192" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L192" s="2">
         <v>2</v>
@@ -18007,10 +17998,10 @@
         <v>14</v>
       </c>
       <c r="J193" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="K193" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L193" s="2">
         <v>3</v>
@@ -18057,10 +18048,10 @@
         <v>182</v>
       </c>
       <c r="J194" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="K194" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L194" s="2">
         <v>2</v>
@@ -18107,10 +18098,10 @@
         <v>438</v>
       </c>
       <c r="J195" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="K195" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L195" s="2">
         <v>5</v>
@@ -18157,10 +18148,10 @@
         <v>182</v>
       </c>
       <c r="J196" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="K196" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L196" s="2">
         <v>4</v>
@@ -18207,10 +18198,10 @@
         <v>14</v>
       </c>
       <c r="J197" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="K197" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L197" s="2">
         <v>3</v>
@@ -18257,10 +18248,10 @@
         <v>438</v>
       </c>
       <c r="J198" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="K198" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L198" s="2">
         <v>3</v>
@@ -18307,10 +18298,10 @@
         <v>14</v>
       </c>
       <c r="J199" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="K199" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L199" s="2">
         <v>4</v>
@@ -18357,10 +18348,10 @@
         <v>182</v>
       </c>
       <c r="J200" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="K200" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L200" s="2">
         <v>2</v>
@@ -18407,10 +18398,10 @@
         <v>438</v>
       </c>
       <c r="J201" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="K201" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L201" s="2">
         <v>3</v>
@@ -18457,10 +18448,10 @@
         <v>14</v>
       </c>
       <c r="J202" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="K202" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L202" s="2">
         <v>4</v>
@@ -18507,10 +18498,10 @@
         <v>438</v>
       </c>
       <c r="J203" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="K203" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L203" s="2">
         <v>4</v>
@@ -18557,10 +18548,10 @@
         <v>182</v>
       </c>
       <c r="J204" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="K204" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L204" s="2">
         <v>3</v>
@@ -18607,10 +18598,10 @@
         <v>14</v>
       </c>
       <c r="J205" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="K205" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L205" s="2">
         <v>4</v>
@@ -18657,10 +18648,10 @@
         <v>182</v>
       </c>
       <c r="J206" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="K206" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L206" s="2">
         <v>3</v>
@@ -18707,10 +18698,10 @@
         <v>14</v>
       </c>
       <c r="J207" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="K207" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L207" s="2">
         <v>4</v>
@@ -18757,10 +18748,10 @@
         <v>438</v>
       </c>
       <c r="J208" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="K208" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L208" s="2">
         <v>5</v>
@@ -18807,10 +18798,10 @@
         <v>182</v>
       </c>
       <c r="J209" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="K209" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L209" s="2">
         <v>4</v>
@@ -18857,10 +18848,10 @@
         <v>14</v>
       </c>
       <c r="J210" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="K210" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L210" s="2">
         <v>3</v>
@@ -18907,10 +18898,10 @@
         <v>14</v>
       </c>
       <c r="J211" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="K211" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L211" s="2">
         <v>3</v>
@@ -18957,10 +18948,10 @@
         <v>438</v>
       </c>
       <c r="J212" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="K212" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L212" s="2">
         <v>3</v>
@@ -19007,10 +18998,10 @@
         <v>14</v>
       </c>
       <c r="J213" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="K213" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L213" s="2">
         <v>3</v>
@@ -19057,10 +19048,10 @@
         <v>182</v>
       </c>
       <c r="J214" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="K214" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L214" s="2">
         <v>4</v>
@@ -19107,10 +19098,10 @@
         <v>14</v>
       </c>
       <c r="J215" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="K215" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L215" s="2">
         <v>4</v>
@@ -19157,10 +19148,10 @@
         <v>182</v>
       </c>
       <c r="J216" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="K216" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L216" s="2">
         <v>2</v>
@@ -19207,10 +19198,10 @@
         <v>14</v>
       </c>
       <c r="J217" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="K217" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L217" s="2">
         <v>4</v>
@@ -19257,10 +19248,10 @@
         <v>14</v>
       </c>
       <c r="J218" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="K218" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L218" s="2">
         <v>3</v>
@@ -19307,10 +19298,10 @@
         <v>438</v>
       </c>
       <c r="J219" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K219" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L219" s="2">
         <v>3</v>
@@ -19357,10 +19348,10 @@
         <v>14</v>
       </c>
       <c r="J220" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="K220" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L220" s="2">
         <v>4</v>
@@ -19407,10 +19398,10 @@
         <v>182</v>
       </c>
       <c r="J221" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="K221" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L221" s="2">
         <v>3</v>
@@ -19457,10 +19448,10 @@
         <v>14</v>
       </c>
       <c r="J222" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="K222" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L222" s="2">
         <v>3</v>
@@ -19507,10 +19498,10 @@
         <v>14</v>
       </c>
       <c r="J223" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="K223" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L223" s="2">
         <v>4</v>
@@ -19557,10 +19548,10 @@
         <v>182</v>
       </c>
       <c r="J224" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="K224" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L224" s="2">
         <v>3</v>
@@ -19607,10 +19598,10 @@
         <v>438</v>
       </c>
       <c r="J225" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="K225" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L225" s="2">
         <v>4</v>
@@ -19657,10 +19648,10 @@
         <v>438</v>
       </c>
       <c r="J226" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="K226" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L226" s="2">
         <v>4</v>
@@ -19707,10 +19698,10 @@
         <v>182</v>
       </c>
       <c r="J227" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="K227" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L227" s="2">
         <v>4</v>
@@ -19757,10 +19748,10 @@
         <v>14</v>
       </c>
       <c r="J228" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="K228" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L228" s="2">
         <v>5</v>
@@ -19807,10 +19798,10 @@
         <v>14</v>
       </c>
       <c r="J229" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="K229" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L229" s="2">
         <v>3</v>
@@ -19857,10 +19848,10 @@
         <v>14</v>
       </c>
       <c r="J230" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="K230" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L230" s="2">
         <v>4</v>
@@ -19907,10 +19898,10 @@
         <v>438</v>
       </c>
       <c r="J231" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="K231" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L231" s="2">
         <v>3</v>
@@ -19957,10 +19948,10 @@
         <v>14</v>
       </c>
       <c r="J232" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="K232" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L232" s="2">
         <v>4</v>
@@ -20007,10 +19998,10 @@
         <v>438</v>
       </c>
       <c r="J233" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="K233" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L233" s="2">
         <v>4</v>
@@ -20057,10 +20048,10 @@
         <v>182</v>
       </c>
       <c r="J234" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="K234" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L234" s="2">
         <v>3</v>
@@ -20107,10 +20098,10 @@
         <v>182</v>
       </c>
       <c r="J235" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="K235" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L235" s="2">
         <v>3</v>
@@ -20157,10 +20148,10 @@
         <v>14</v>
       </c>
       <c r="J236" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="K236" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L236" s="2">
         <v>3</v>
@@ -20207,10 +20198,10 @@
         <v>438</v>
       </c>
       <c r="J237" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="K237" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L237" s="2">
         <v>5</v>
@@ -20257,10 +20248,10 @@
         <v>182</v>
       </c>
       <c r="J238" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="K238" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L238" s="2">
         <v>4</v>
@@ -20307,10 +20298,10 @@
         <v>14</v>
       </c>
       <c r="J239" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="K239" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L239" s="2">
         <v>3</v>
@@ -20357,10 +20348,10 @@
         <v>14</v>
       </c>
       <c r="J240" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="K240" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L240" s="2">
         <v>4</v>
@@ -20407,10 +20398,10 @@
         <v>182</v>
       </c>
       <c r="J241" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="K241" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L241" s="2">
         <v>3</v>
@@ -20457,10 +20448,10 @@
         <v>14</v>
       </c>
       <c r="J242" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K242" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L242" s="2">
         <v>3</v>
@@ -20507,10 +20498,10 @@
         <v>182</v>
       </c>
       <c r="J243" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="K243" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L243" s="2">
         <v>3</v>
@@ -20557,10 +20548,10 @@
         <v>438</v>
       </c>
       <c r="J244" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="K244" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L244" s="2">
         <v>5</v>
@@ -20607,10 +20598,10 @@
         <v>14</v>
       </c>
       <c r="J245" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="K245" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L245" s="2">
         <v>3</v>
@@ -20657,10 +20648,10 @@
         <v>14</v>
       </c>
       <c r="J246" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="K246" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L246" s="2">
         <v>3</v>
@@ -20707,10 +20698,10 @@
         <v>14</v>
       </c>
       <c r="J247" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="K247" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L247" s="2">
         <v>4</v>
@@ -20757,10 +20748,10 @@
         <v>14</v>
       </c>
       <c r="J248" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="K248" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L248" s="2">
         <v>2</v>
@@ -20807,10 +20798,10 @@
         <v>14</v>
       </c>
       <c r="J249" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="K249" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L249" s="2">
         <v>3</v>
@@ -20857,10 +20848,10 @@
         <v>182</v>
       </c>
       <c r="J250" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="K250" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L250" s="2">
         <v>3</v>
@@ -20907,10 +20898,10 @@
         <v>14</v>
       </c>
       <c r="J251" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="K251" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L251" s="2">
         <v>4</v>
@@ -20957,10 +20948,10 @@
         <v>438</v>
       </c>
       <c r="J252" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="K252" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L252" s="2">
         <v>5</v>
@@ -21007,10 +20998,10 @@
         <v>182</v>
       </c>
       <c r="J253" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="K253" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L253" s="2">
         <v>4</v>
@@ -21057,10 +21048,10 @@
         <v>14</v>
       </c>
       <c r="J254" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="K254" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L254" s="2">
         <v>3</v>
@@ -21107,10 +21098,10 @@
         <v>14</v>
       </c>
       <c r="J255" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="K255" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L255" s="2">
         <v>3</v>
@@ -21157,10 +21148,10 @@
         <v>438</v>
       </c>
       <c r="J256" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="K256" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L256" s="2">
         <v>3</v>
@@ -21207,10 +21198,10 @@
         <v>182</v>
       </c>
       <c r="J257" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="K257" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L257" s="2">
         <v>2</v>
@@ -21257,10 +21248,10 @@
         <v>14</v>
       </c>
       <c r="J258" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="K258" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L258" s="2">
         <v>4</v>
@@ -21307,10 +21298,10 @@
         <v>14</v>
       </c>
       <c r="J259" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="K259" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L259" s="2">
         <v>3</v>
@@ -21357,10 +21348,10 @@
         <v>438</v>
       </c>
       <c r="J260" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="K260" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L260" s="2">
         <v>3</v>
@@ -21407,10 +21398,10 @@
         <v>14</v>
       </c>
       <c r="J261" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="K261" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L261" s="2">
         <v>4</v>
@@ -21457,10 +21448,10 @@
         <v>182</v>
       </c>
       <c r="J262" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="K262" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L262" s="2">
         <v>3</v>
@@ -21507,10 +21498,10 @@
         <v>14</v>
       </c>
       <c r="J263" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K263" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L263" s="2">
         <v>3</v>
@@ -21557,10 +21548,10 @@
         <v>182</v>
       </c>
       <c r="J264" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="K264" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L264" s="2">
         <v>3</v>
@@ -21607,10 +21598,10 @@
         <v>438</v>
       </c>
       <c r="J265" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="K265" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L265" s="2">
         <v>4</v>
@@ -21657,10 +21648,10 @@
         <v>182</v>
       </c>
       <c r="J266" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K266" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L266" s="2">
         <v>4</v>
@@ -21707,10 +21698,10 @@
         <v>14</v>
       </c>
       <c r="J267" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="K267" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L267" s="2">
         <v>5</v>
@@ -21757,10 +21748,10 @@
         <v>14</v>
       </c>
       <c r="J268" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="K268" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L268" s="2">
         <v>3</v>
@@ -21807,10 +21798,10 @@
         <v>14</v>
       </c>
       <c r="J269" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="K269" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L269" s="2">
         <v>4</v>
@@ -21857,10 +21848,10 @@
         <v>438</v>
       </c>
       <c r="J270" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="K270" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L270" s="2">
         <v>3</v>
@@ -21907,10 +21898,10 @@
         <v>14</v>
       </c>
       <c r="J271" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="K271" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L271" s="2">
         <v>4</v>
@@ -21957,10 +21948,10 @@
         <v>438</v>
       </c>
       <c r="J272" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="K272" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L272" s="2">
         <v>4</v>
@@ -22007,10 +21998,10 @@
         <v>182</v>
       </c>
       <c r="J273" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="K273" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L273" s="2">
         <v>3</v>
@@ -22057,10 +22048,10 @@
         <v>14</v>
       </c>
       <c r="J274" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="K274" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L274" s="2">
         <v>4</v>
@@ -22107,10 +22098,10 @@
         <v>14</v>
       </c>
       <c r="J275" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="K275" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L275" s="2">
         <v>3</v>
@@ -22157,10 +22148,10 @@
         <v>14</v>
       </c>
       <c r="J276" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="K276" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L276" s="2">
         <v>4</v>
@@ -22207,10 +22198,10 @@
         <v>182</v>
       </c>
       <c r="J277" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="K277" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L277" s="2">
         <v>3</v>
@@ -22257,10 +22248,10 @@
         <v>438</v>
       </c>
       <c r="J278" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="K278" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L278" s="2">
         <v>5</v>
@@ -22307,10 +22298,10 @@
         <v>14</v>
       </c>
       <c r="J279" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="K279" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L279" s="2">
         <v>3</v>
@@ -22357,10 +22348,10 @@
         <v>438</v>
       </c>
       <c r="J280" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="K280" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L280" s="2">
         <v>3</v>
@@ -22407,10 +22398,10 @@
         <v>14</v>
       </c>
       <c r="J281" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="K281" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L281" s="2">
         <v>4</v>
@@ -22457,10 +22448,10 @@
         <v>14</v>
       </c>
       <c r="J282" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="K282" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L282" s="2">
         <v>3</v>
@@ -22507,10 +22498,10 @@
         <v>182</v>
       </c>
       <c r="J283" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="K283" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L283" s="2">
         <v>4</v>
@@ -22557,10 +22548,10 @@
         <v>14</v>
       </c>
       <c r="J284" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="K284" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L284" s="2">
         <v>4</v>
@@ -22607,10 +22598,10 @@
         <v>14</v>
       </c>
       <c r="J285" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="K285" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L285" s="2">
         <v>2</v>
@@ -22657,10 +22648,10 @@
         <v>14</v>
       </c>
       <c r="J286" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="K286" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L286" s="2">
         <v>3</v>
@@ -22707,10 +22698,10 @@
         <v>182</v>
       </c>
       <c r="J287" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="K287" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L287" s="2">
         <v>3</v>
@@ -22757,10 +22748,10 @@
         <v>438</v>
       </c>
       <c r="J288" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="K288" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L288" s="2">
         <v>4</v>
@@ -22807,10 +22798,10 @@
         <v>182</v>
       </c>
       <c r="J289" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="K289" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L289" s="2">
         <v>4</v>
@@ -22857,10 +22848,10 @@
         <v>14</v>
       </c>
       <c r="J290" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="K290" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L290" s="2">
         <v>3</v>
@@ -22907,10 +22898,10 @@
         <v>438</v>
       </c>
       <c r="J291" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="K291" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L291" s="2">
         <v>4</v>
@@ -22957,10 +22948,10 @@
         <v>14</v>
       </c>
       <c r="J292" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="K292" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L292" s="2">
         <v>3</v>
@@ -23007,10 +22998,10 @@
         <v>14</v>
       </c>
       <c r="J293" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="K293" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L293" s="2">
         <v>4</v>
@@ -23057,10 +23048,10 @@
         <v>182</v>
       </c>
       <c r="J294" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="K294" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L294" s="2">
         <v>3</v>
@@ -23107,10 +23098,10 @@
         <v>14</v>
       </c>
       <c r="J295" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="K295" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L295" s="2">
         <v>3</v>
@@ -23157,10 +23148,10 @@
         <v>438</v>
       </c>
       <c r="J296" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="K296" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L296" s="2">
         <v>4</v>
@@ -23207,10 +23198,10 @@
         <v>182</v>
       </c>
       <c r="J297" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="K297" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L297" s="2">
         <v>4</v>
@@ -23257,10 +23248,10 @@
         <v>14</v>
       </c>
       <c r="J298" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="K298" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L298" s="2">
         <v>5</v>
@@ -23307,10 +23298,10 @@
         <v>14</v>
       </c>
       <c r="J299" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="K299" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L299" s="2">
         <v>4</v>
@@ -23357,10 +23348,10 @@
         <v>14</v>
       </c>
       <c r="J300" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="K300" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L300" s="2">
         <v>4</v>
@@ -23407,10 +23398,10 @@
         <v>182</v>
       </c>
       <c r="J301" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="K301" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L301" s="2">
         <v>4</v>
@@ -23457,10 +23448,10 @@
         <v>182</v>
       </c>
       <c r="J302" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="K302" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L302" s="2">
         <v>3</v>
@@ -23507,10 +23498,10 @@
         <v>438</v>
       </c>
       <c r="J303" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="K303" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L303" s="2">
         <v>5</v>
@@ -23557,10 +23548,10 @@
         <v>14</v>
       </c>
       <c r="J304" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="K304" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L304" s="2">
         <v>3</v>
@@ -23607,10 +23598,10 @@
         <v>14</v>
       </c>
       <c r="J305" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="K305" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L305" s="2">
         <v>4</v>
@@ -23657,10 +23648,10 @@
         <v>14</v>
       </c>
       <c r="J306" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="K306" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L306" s="2">
         <v>4</v>
@@ -23707,10 +23698,10 @@
         <v>182</v>
       </c>
       <c r="J307" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="K307" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L307" s="2">
         <v>3</v>
@@ -23757,10 +23748,10 @@
         <v>14</v>
       </c>
       <c r="J308" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K308" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L308" s="2">
         <v>3</v>
@@ -23807,10 +23798,10 @@
         <v>14</v>
       </c>
       <c r="J309" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="K309" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L309" s="2">
         <v>4</v>
@@ -23857,10 +23848,10 @@
         <v>14</v>
       </c>
       <c r="J310" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="K310" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L310" s="2">
         <v>3</v>
@@ -23907,10 +23898,10 @@
         <v>182</v>
       </c>
       <c r="J311" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K311" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L311" s="2">
         <v>3</v>
@@ -23957,10 +23948,10 @@
         <v>14</v>
       </c>
       <c r="J312" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="K312" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L312" s="2">
         <v>4</v>
@@ -24007,10 +23998,10 @@
         <v>14</v>
       </c>
       <c r="J313" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="K313" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L313" s="2">
         <v>3</v>
@@ -24057,10 +24048,10 @@
         <v>14</v>
       </c>
       <c r="J314" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="K314" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L314" s="2">
         <v>3</v>
@@ -24107,10 +24098,10 @@
         <v>14</v>
       </c>
       <c r="J315" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="K315" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L315" s="2">
         <v>4</v>
@@ -24157,10 +24148,10 @@
         <v>14</v>
       </c>
       <c r="J316" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="K316" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L316" s="2">
         <v>5</v>
@@ -24207,10 +24198,10 @@
         <v>438</v>
       </c>
       <c r="J317" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="K317" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L317" s="2">
         <v>4</v>
@@ -24257,10 +24248,10 @@
         <v>182</v>
       </c>
       <c r="J318" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="K318" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L318" s="2">
         <v>3</v>
@@ -24307,10 +24298,10 @@
         <v>14</v>
       </c>
       <c r="J319" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="K319" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L319" s="2">
         <v>3</v>
@@ -24357,10 +24348,10 @@
         <v>14</v>
       </c>
       <c r="J320" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="K320" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L320" s="2">
         <v>4</v>
@@ -24407,10 +24398,10 @@
         <v>182</v>
       </c>
       <c r="J321" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="K321" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L321" s="2">
         <v>4</v>
@@ -24457,10 +24448,10 @@
         <v>14</v>
       </c>
       <c r="J322" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="K322" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L322" s="2">
         <v>4</v>
@@ -24507,10 +24498,10 @@
         <v>14</v>
       </c>
       <c r="J323" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="K323" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L323" s="2">
         <v>3</v>
@@ -24557,10 +24548,10 @@
         <v>14</v>
       </c>
       <c r="J324" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K324" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L324" s="2">
         <v>2</v>
@@ -24607,10 +24598,10 @@
         <v>14</v>
       </c>
       <c r="J325" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="K325" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L325" s="2">
         <v>5</v>
@@ -24657,10 +24648,10 @@
         <v>14</v>
       </c>
       <c r="J326" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="K326" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L326" s="2">
         <v>4</v>
@@ -24707,10 +24698,10 @@
         <v>14</v>
       </c>
       <c r="J327" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="K327" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L327" s="2">
         <v>3</v>
@@ -24757,10 +24748,10 @@
         <v>14</v>
       </c>
       <c r="J328" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="K328" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L328" s="2">
         <v>3</v>
@@ -24807,10 +24798,10 @@
         <v>182</v>
       </c>
       <c r="J329" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="K329" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L329" s="2">
         <v>3</v>
@@ -24857,10 +24848,10 @@
         <v>14</v>
       </c>
       <c r="J330" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="K330" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L330" s="2">
         <v>3</v>
@@ -24907,10 +24898,10 @@
         <v>14</v>
       </c>
       <c r="J331" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="K331" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L331" s="2">
         <v>4</v>
@@ -24957,10 +24948,10 @@
         <v>438</v>
       </c>
       <c r="J332" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="K332" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L332" s="2">
         <v>5</v>
@@ -25007,10 +24998,10 @@
         <v>14</v>
       </c>
       <c r="J333" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="K333" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L333" s="2">
         <v>4</v>
@@ -25057,10 +25048,10 @@
         <v>14</v>
       </c>
       <c r="J334" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="K334" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L334" s="2">
         <v>3</v>
@@ -25107,10 +25098,10 @@
         <v>14</v>
       </c>
       <c r="J335" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="K335" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L335" s="2">
         <v>3</v>
@@ -25157,10 +25148,10 @@
         <v>14</v>
       </c>
       <c r="J336" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="K336" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L336" s="2">
         <v>4</v>
@@ -25207,10 +25198,10 @@
         <v>14</v>
       </c>
       <c r="J337" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="K337" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L337" s="2">
         <v>4</v>
@@ -25257,10 +25248,10 @@
         <v>14</v>
       </c>
       <c r="J338" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="K338" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L338" s="2">
         <v>3</v>
@@ -25307,10 +25298,10 @@
         <v>14</v>
       </c>
       <c r="J339" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="K339" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L339" s="2">
         <v>3</v>
@@ -25357,10 +25348,10 @@
         <v>438</v>
       </c>
       <c r="J340" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="K340" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L340" s="2">
         <v>4</v>
@@ -25407,10 +25398,10 @@
         <v>182</v>
       </c>
       <c r="J341" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="K341" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L341" s="2">
         <v>4</v>
@@ -25457,10 +25448,10 @@
         <v>14</v>
       </c>
       <c r="J342" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="K342" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L342" s="2">
         <v>4</v>
@@ -25507,10 +25498,10 @@
         <v>14</v>
       </c>
       <c r="J343" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="K343" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L343" s="2">
         <v>5</v>
@@ -25557,10 +25548,10 @@
         <v>182</v>
       </c>
       <c r="J344" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="K344" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L344" s="2">
         <v>3</v>
@@ -25607,10 +25598,10 @@
         <v>14</v>
       </c>
       <c r="J345" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="K345" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L345" s="2">
         <v>3</v>
@@ -25657,10 +25648,10 @@
         <v>14</v>
       </c>
       <c r="J346" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="K346" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L346" s="2">
         <v>4</v>
@@ -25707,10 +25698,10 @@
         <v>14</v>
       </c>
       <c r="J347" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="K347" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L347" s="2">
         <v>3</v>
@@ -25757,10 +25748,10 @@
         <v>14</v>
       </c>
       <c r="J348" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="K348" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L348" s="2">
         <v>3</v>
@@ -25807,10 +25798,10 @@
         <v>438</v>
       </c>
       <c r="J349" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="K349" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L349" s="2">
         <v>5</v>
@@ -25857,10 +25848,10 @@
         <v>14</v>
       </c>
       <c r="J350" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="K350" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L350" s="2">
         <v>4</v>
@@ -25907,10 +25898,10 @@
         <v>14</v>
       </c>
       <c r="J351" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="K351" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L351" s="2">
         <v>3</v>
@@ -25957,10 +25948,10 @@
         <v>14</v>
       </c>
       <c r="J352" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="K352" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L352" s="2">
         <v>4</v>
@@ -26007,10 +25998,10 @@
         <v>14</v>
       </c>
       <c r="J353" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="K353" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L353" s="2">
         <v>4</v>
@@ -26057,10 +26048,10 @@
         <v>438</v>
       </c>
       <c r="J354" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="K354" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L354" s="2">
         <v>4</v>
@@ -26107,10 +26098,10 @@
         <v>14</v>
       </c>
       <c r="J355" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="K355" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L355" s="2">
         <v>3</v>
@@ -26157,10 +26148,10 @@
         <v>14</v>
       </c>
       <c r="J356" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="K356" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L356" s="2">
         <v>4</v>
@@ -26207,10 +26198,10 @@
         <v>14</v>
       </c>
       <c r="J357" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="K357" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L357" s="2">
         <v>3</v>
@@ -26257,10 +26248,10 @@
         <v>182</v>
       </c>
       <c r="J358" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="K358" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L358" s="2">
         <v>3</v>
@@ -26307,10 +26298,10 @@
         <v>14</v>
       </c>
       <c r="J359" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="K359" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L359" s="2">
         <v>4</v>
@@ -26357,10 +26348,10 @@
         <v>438</v>
       </c>
       <c r="J360" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="K360" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L360" s="2">
         <v>3</v>
@@ -26407,10 +26398,10 @@
         <v>14</v>
       </c>
       <c r="J361" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="K361" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L361" s="2">
         <v>3</v>
@@ -26457,10 +26448,10 @@
         <v>14</v>
       </c>
       <c r="J362" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="K362" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L362" s="2">
         <v>3</v>
@@ -26507,10 +26498,10 @@
         <v>14</v>
       </c>
       <c r="J363" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="K363" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L363" s="2">
         <v>4</v>
@@ -26557,10 +26548,10 @@
         <v>14</v>
       </c>
       <c r="J364" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="K364" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L364" s="2">
         <v>5</v>
@@ -26607,10 +26598,10 @@
         <v>438</v>
       </c>
       <c r="J365" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="K365" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L365" s="2">
         <v>4</v>
@@ -26657,10 +26648,10 @@
         <v>182</v>
       </c>
       <c r="J366" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="K366" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L366" s="2">
         <v>3</v>
@@ -26707,10 +26698,10 @@
         <v>14</v>
       </c>
       <c r="J367" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="K367" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L367" s="2">
         <v>3</v>
@@ -26757,10 +26748,10 @@
         <v>14</v>
       </c>
       <c r="J368" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="K368" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L368" s="2">
         <v>4</v>
@@ -26807,10 +26798,10 @@
         <v>182</v>
       </c>
       <c r="J369" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="K369" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L369" s="2">
         <v>4</v>
@@ -26857,10 +26848,10 @@
         <v>14</v>
       </c>
       <c r="J370" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="K370" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L370" s="2">
         <v>4</v>
@@ -26907,10 +26898,10 @@
         <v>14</v>
       </c>
       <c r="J371" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="K371" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L371" s="2">
         <v>3</v>
@@ -26957,10 +26948,10 @@
         <v>14</v>
       </c>
       <c r="J372" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="K372" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L372" s="2">
         <v>2</v>
@@ -27007,10 +26998,10 @@
         <v>14</v>
       </c>
       <c r="J373" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K373" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L373" s="2">
         <v>5</v>
@@ -27057,10 +27048,10 @@
         <v>14</v>
       </c>
       <c r="J374" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="K374" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L374" s="2">
         <v>4</v>
@@ -27107,10 +27098,10 @@
         <v>14</v>
       </c>
       <c r="J375" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="K375" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L375" s="2">
         <v>3</v>
@@ -27157,10 +27148,10 @@
         <v>14</v>
       </c>
       <c r="J376" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="K376" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L376" s="2">
         <v>3</v>
@@ -27207,10 +27198,10 @@
         <v>14</v>
       </c>
       <c r="J377" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="K377" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L377" s="2">
         <v>3</v>
@@ -27257,10 +27248,10 @@
         <v>182</v>
       </c>
       <c r="J378" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="K378" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L378" s="2">
         <v>3</v>
@@ -27307,10 +27298,10 @@
         <v>14</v>
       </c>
       <c r="J379" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="K379" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L379" s="2">
         <v>3</v>
@@ -27357,10 +27348,10 @@
         <v>14</v>
       </c>
       <c r="J380" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="K380" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L380" s="2">
         <v>4</v>
@@ -27407,10 +27398,10 @@
         <v>14</v>
       </c>
       <c r="J381" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="K381" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L381" s="2">
         <v>4</v>
@@ -27457,10 +27448,10 @@
         <v>14</v>
       </c>
       <c r="J382" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="K382" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L382" s="2">
         <v>3</v>
@@ -27507,10 +27498,10 @@
         <v>438</v>
       </c>
       <c r="J383" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="K383" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L383" s="2">
         <v>5</v>
@@ -27557,10 +27548,10 @@
         <v>14</v>
       </c>
       <c r="J384" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="K384" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L384" s="2">
         <v>4</v>
@@ -27607,10 +27598,10 @@
         <v>14</v>
       </c>
       <c r="J385" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="K385" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L385" s="2">
         <v>3</v>
@@ -27657,10 +27648,10 @@
         <v>14</v>
       </c>
       <c r="J386" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="K386" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L386" s="2">
         <v>3</v>
@@ -27707,10 +27698,10 @@
         <v>14</v>
       </c>
       <c r="J387" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="K387" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L387" s="2">
         <v>4</v>
@@ -27757,10 +27748,10 @@
         <v>14</v>
       </c>
       <c r="J388" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="K388" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L388" s="2">
         <v>3</v>
@@ -27807,10 +27798,10 @@
         <v>438</v>
       </c>
       <c r="J389" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="K389" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L389" s="2">
         <v>4</v>
@@ -27857,10 +27848,10 @@
         <v>14</v>
       </c>
       <c r="J390" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="K390" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L390" s="2">
         <v>4</v>
@@ -27907,10 +27898,10 @@
         <v>14</v>
       </c>
       <c r="J391" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="K391" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L391" s="2">
         <v>4</v>
@@ -27957,10 +27948,10 @@
         <v>14</v>
       </c>
       <c r="J392" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="K392" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L392" s="2">
         <v>3</v>
@@ -28007,10 +27998,10 @@
         <v>14</v>
       </c>
       <c r="J393" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K393" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L393" s="2">
         <v>3</v>
@@ -28057,10 +28048,10 @@
         <v>438</v>
       </c>
       <c r="J394" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="K394" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L394" s="2">
         <v>4</v>
@@ -28107,10 +28098,10 @@
         <v>182</v>
       </c>
       <c r="J395" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K395" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L395" s="2">
         <v>4</v>
@@ -28157,10 +28148,10 @@
         <v>14</v>
       </c>
       <c r="J396" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="K396" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L396" s="2">
         <v>4</v>
@@ -28207,10 +28198,10 @@
         <v>14</v>
       </c>
       <c r="J397" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="K397" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L397" s="2">
         <v>5</v>
@@ -28257,10 +28248,10 @@
         <v>182</v>
       </c>
       <c r="J398" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="K398" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L398" s="2">
         <v>3</v>
@@ -28307,10 +28298,10 @@
         <v>14</v>
       </c>
       <c r="J399" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="K399" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L399" s="2">
         <v>3</v>
@@ -28357,10 +28348,10 @@
         <v>14</v>
       </c>
       <c r="J400" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="K400" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L400" s="2">
         <v>4</v>
@@ -28407,10 +28398,10 @@
         <v>14</v>
       </c>
       <c r="J401" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="K401" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L401" s="2">
         <v>3</v>
@@ -28457,10 +28448,10 @@
         <v>14</v>
       </c>
       <c r="J402" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="K402" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L402" s="2">
         <v>3</v>
@@ -28507,10 +28498,10 @@
         <v>438</v>
       </c>
       <c r="J403" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="K403" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L403" s="2">
         <v>5</v>
@@ -28557,10 +28548,10 @@
         <v>14</v>
       </c>
       <c r="J404" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="K404" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L404" s="2">
         <v>4</v>
@@ -28607,10 +28598,10 @@
         <v>14</v>
       </c>
       <c r="J405" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="K405" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L405" s="2">
         <v>3</v>
@@ -28657,10 +28648,10 @@
         <v>14</v>
       </c>
       <c r="J406" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="K406" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L406" s="2">
         <v>4</v>
@@ -28707,10 +28698,10 @@
         <v>14</v>
       </c>
       <c r="J407" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="K407" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L407" s="2">
         <v>4</v>
@@ -28757,10 +28748,10 @@
         <v>438</v>
       </c>
       <c r="J408" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="K408" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L408" s="2">
         <v>4</v>
@@ -28807,10 +28798,10 @@
         <v>14</v>
       </c>
       <c r="J409" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="K409" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L409" s="2">
         <v>3</v>
@@ -28857,10 +28848,10 @@
         <v>14</v>
       </c>
       <c r="J410" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="K410" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L410" s="2">
         <v>4</v>
@@ -28907,10 +28898,10 @@
         <v>14</v>
       </c>
       <c r="J411" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="K411" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L411" s="2">
         <v>3</v>
@@ -28957,10 +28948,10 @@
         <v>182</v>
       </c>
       <c r="J412" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="K412" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L412" s="2">
         <v>3</v>
@@ -29007,10 +28998,10 @@
         <v>438</v>
       </c>
       <c r="J413" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="K413" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L413" s="2">
         <v>3</v>
@@ -29057,10 +29048,10 @@
         <v>14</v>
       </c>
       <c r="J414" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="K414" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L414" s="2">
         <v>3</v>
@@ -29107,10 +29098,10 @@
         <v>14</v>
       </c>
       <c r="J415" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="K415" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L415" s="2">
         <v>4</v>
@@ -29157,10 +29148,10 @@
         <v>14</v>
       </c>
       <c r="J416" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="K416" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L416" s="2">
         <v>5</v>
@@ -29207,10 +29198,10 @@
         <v>438</v>
       </c>
       <c r="J417" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="K417" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L417" s="2">
         <v>4</v>
@@ -29257,10 +29248,10 @@
         <v>182</v>
       </c>
       <c r="J418" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="K418" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L418" s="2">
         <v>3</v>
@@ -29307,10 +29298,10 @@
         <v>14</v>
       </c>
       <c r="J419" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="K419" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L419" s="2">
         <v>3</v>
@@ -29357,10 +29348,10 @@
         <v>14</v>
       </c>
       <c r="J420" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="K420" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L420" s="2">
         <v>4</v>
@@ -29407,10 +29398,10 @@
         <v>182</v>
       </c>
       <c r="J421" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="K421" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L421" s="2">
         <v>4</v>
@@ -29457,10 +29448,10 @@
         <v>14</v>
       </c>
       <c r="J422" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K422" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L422" s="2">
         <v>4</v>
@@ -29507,10 +29498,10 @@
         <v>14</v>
       </c>
       <c r="J423" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="K423" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L423" s="2">
         <v>3</v>
@@ -29557,10 +29548,10 @@
         <v>14</v>
       </c>
       <c r="J424" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="K424" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L424" s="2">
         <v>2</v>
@@ -29607,10 +29598,10 @@
         <v>14</v>
       </c>
       <c r="J425" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="K425" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L425" s="2">
         <v>5</v>
@@ -29657,10 +29648,10 @@
         <v>14</v>
       </c>
       <c r="J426" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="K426" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L426" s="2">
         <v>3</v>
@@ -29707,10 +29698,10 @@
         <v>14</v>
       </c>
       <c r="J427" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K427" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L427" s="2">
         <v>3</v>
@@ -29757,10 +29748,10 @@
         <v>14</v>
       </c>
       <c r="J428" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="K428" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L428" s="2">
         <v>3</v>
@@ -29807,10 +29798,10 @@
         <v>182</v>
       </c>
       <c r="J429" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="K429" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L429" s="2">
         <v>3</v>
@@ -29857,10 +29848,10 @@
         <v>14</v>
       </c>
       <c r="J430" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="K430" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L430" s="2">
         <v>3</v>
@@ -29907,10 +29898,10 @@
         <v>14</v>
       </c>
       <c r="J431" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="K431" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L431" s="2">
         <v>4</v>
@@ -29957,10 +29948,10 @@
         <v>14</v>
       </c>
       <c r="J432" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="K432" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L432" s="2">
         <v>4</v>
@@ -30007,10 +29998,10 @@
         <v>14</v>
       </c>
       <c r="J433" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="K433" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L433" s="2">
         <v>3</v>
@@ -30057,10 +30048,10 @@
         <v>438</v>
       </c>
       <c r="J434" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="K434" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L434" s="2">
         <v>5</v>
@@ -30107,10 +30098,10 @@
         <v>14</v>
       </c>
       <c r="J435" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="K435" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L435" s="2">
         <v>4</v>
@@ -30157,10 +30148,10 @@
         <v>14</v>
       </c>
       <c r="J436" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="K436" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L436" s="2">
         <v>3</v>
@@ -30207,10 +30198,10 @@
         <v>14</v>
       </c>
       <c r="J437" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="K437" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L437" s="2">
         <v>3</v>
@@ -30257,10 +30248,10 @@
         <v>14</v>
       </c>
       <c r="J438" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="K438" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L438" s="2">
         <v>4</v>
@@ -30307,10 +30298,10 @@
         <v>14</v>
       </c>
       <c r="J439" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="K439" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L439" s="2">
         <v>4</v>
@@ -30357,10 +30348,10 @@
         <v>14</v>
       </c>
       <c r="J440" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="K440" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L440" s="2">
         <v>3</v>
@@ -30407,10 +30398,10 @@
         <v>14</v>
       </c>
       <c r="J441" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="K441" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L441" s="2">
         <v>3</v>
@@ -30457,10 +30448,10 @@
         <v>438</v>
       </c>
       <c r="J442" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="K442" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L442" s="2">
         <v>4</v>
@@ -30507,10 +30498,10 @@
         <v>182</v>
       </c>
       <c r="J443" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="K443" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L443" s="2">
         <v>4</v>
@@ -30557,10 +30548,10 @@
         <v>14</v>
       </c>
       <c r="J444" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="K444" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L444" s="2">
         <v>4</v>
@@ -30607,10 +30598,10 @@
         <v>14</v>
       </c>
       <c r="J445" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="K445" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L445" s="2">
         <v>5</v>
@@ -30657,10 +30648,10 @@
         <v>182</v>
       </c>
       <c r="J446" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="K446" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L446" s="2">
         <v>3</v>
@@ -30707,10 +30698,10 @@
         <v>14</v>
       </c>
       <c r="J447" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="K447" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L447" s="2">
         <v>3</v>
@@ -30757,10 +30748,10 @@
         <v>14</v>
       </c>
       <c r="J448" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="K448" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L448" s="2">
         <v>4</v>
@@ -30807,10 +30798,10 @@
         <v>14</v>
       </c>
       <c r="J449" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="K449" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L449" s="2">
         <v>3</v>
@@ -30857,10 +30848,10 @@
         <v>14</v>
       </c>
       <c r="J450" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="K450" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L450" s="2">
         <v>3</v>
@@ -30907,10 +30898,10 @@
         <v>438</v>
       </c>
       <c r="J451" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="K451" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L451" s="2">
         <v>5</v>
@@ -30957,10 +30948,10 @@
         <v>14</v>
       </c>
       <c r="J452" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="K452" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L452" s="2">
         <v>4</v>
@@ -31007,10 +30998,10 @@
         <v>14</v>
       </c>
       <c r="J453" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="K453" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L453" s="2">
         <v>3</v>
@@ -31057,10 +31048,10 @@
         <v>14</v>
       </c>
       <c r="J454" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="K454" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L454" s="2">
         <v>4</v>
@@ -31107,10 +31098,10 @@
         <v>14</v>
       </c>
       <c r="J455" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="K455" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L455" s="2">
         <v>4</v>
@@ -31157,10 +31148,10 @@
         <v>14</v>
       </c>
       <c r="J456" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K456" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L456" s="2">
         <v>4</v>
@@ -31207,10 +31198,10 @@
         <v>14</v>
       </c>
       <c r="J457" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="K457" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L457" s="2">
         <v>3</v>
@@ -31257,10 +31248,10 @@
         <v>182</v>
       </c>
       <c r="J458" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="K458" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L458" s="2">
         <v>3</v>
@@ -31307,10 +31298,10 @@
         <v>14</v>
       </c>
       <c r="J459" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="K459" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L459" s="2">
         <v>4</v>
@@ -31357,10 +31348,10 @@
         <v>438</v>
       </c>
       <c r="J460" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="K460" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L460" s="2">
         <v>3</v>
@@ -31407,10 +31398,10 @@
         <v>14</v>
       </c>
       <c r="J461" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="K461" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L461" s="2">
         <v>3</v>
@@ -31457,10 +31448,10 @@
         <v>14</v>
       </c>
       <c r="J462" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="K462" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L462" s="2">
         <v>3</v>
@@ -31507,10 +31498,10 @@
         <v>14</v>
       </c>
       <c r="J463" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="K463" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L463" s="2">
         <v>4</v>
@@ -31557,10 +31548,10 @@
         <v>14</v>
       </c>
       <c r="J464" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="K464" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L464" s="2">
         <v>5</v>
@@ -31607,10 +31598,10 @@
         <v>438</v>
       </c>
       <c r="J465" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="K465" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L465" s="2">
         <v>4</v>
@@ -31657,10 +31648,10 @@
         <v>14</v>
       </c>
       <c r="J466" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="K466" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L466" s="2">
         <v>3</v>
@@ -31707,10 +31698,10 @@
         <v>14</v>
       </c>
       <c r="J467" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="K467" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L467" s="2">
         <v>4</v>
@@ -31757,10 +31748,10 @@
         <v>14</v>
       </c>
       <c r="J468" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="K468" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L468" s="2">
         <v>4</v>
@@ -31807,10 +31798,10 @@
         <v>14</v>
       </c>
       <c r="J469" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="K469" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L469" s="2">
         <v>3</v>
@@ -31857,10 +31848,10 @@
         <v>14</v>
       </c>
       <c r="J470" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="K470" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L470" s="2">
         <v>2</v>
@@ -31907,10 +31898,10 @@
         <v>14</v>
       </c>
       <c r="J471" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="K471" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L471" s="2">
         <v>5</v>
@@ -31957,10 +31948,10 @@
         <v>14</v>
       </c>
       <c r="J472" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="K472" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L472" s="2">
         <v>4</v>
@@ -32007,10 +31998,10 @@
         <v>14</v>
       </c>
       <c r="J473" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="K473" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L473" s="2">
         <v>3</v>
@@ -32057,10 +32048,10 @@
         <v>14</v>
       </c>
       <c r="J474" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="K474" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L474" s="2">
         <v>3</v>
@@ -32107,10 +32098,10 @@
         <v>14</v>
       </c>
       <c r="J475" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="K475" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L475" s="2">
         <v>3</v>
@@ -32157,10 +32148,10 @@
         <v>182</v>
       </c>
       <c r="J476" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="K476" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L476" s="2">
         <v>3</v>
@@ -32207,10 +32198,10 @@
         <v>14</v>
       </c>
       <c r="J477" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="K477" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L477" s="2">
         <v>3</v>
@@ -32257,10 +32248,10 @@
         <v>14</v>
       </c>
       <c r="J478" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="K478" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L478" s="2">
         <v>4</v>
@@ -32307,10 +32298,10 @@
         <v>14</v>
       </c>
       <c r="J479" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="K479" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L479" s="2">
         <v>4</v>
@@ -32357,10 +32348,10 @@
         <v>14</v>
       </c>
       <c r="J480" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="K480" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L480" s="2">
         <v>3</v>
@@ -32407,10 +32398,10 @@
         <v>438</v>
       </c>
       <c r="J481" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="K481" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L481" s="2">
         <v>5</v>
@@ -32457,10 +32448,10 @@
         <v>14</v>
       </c>
       <c r="J482" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="K482" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L482" s="2">
         <v>4</v>
@@ -32507,10 +32498,10 @@
         <v>14</v>
       </c>
       <c r="J483" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="K483" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L483" s="2">
         <v>3</v>
@@ -32557,10 +32548,10 @@
         <v>14</v>
       </c>
       <c r="J484" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="K484" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L484" s="2">
         <v>4</v>
@@ -32607,10 +32598,10 @@
         <v>14</v>
       </c>
       <c r="J485" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="K485" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L485" s="2">
         <v>3</v>
@@ -32657,10 +32648,10 @@
         <v>14</v>
       </c>
       <c r="J486" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="K486" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L486" s="2">
         <v>4</v>
@@ -32707,10 +32698,10 @@
         <v>14</v>
       </c>
       <c r="J487" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="K487" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L487" s="2">
         <v>4</v>
@@ -32757,10 +32748,10 @@
         <v>14</v>
       </c>
       <c r="J488" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="K488" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L488" s="2">
         <v>3</v>
@@ -32807,10 +32798,10 @@
         <v>14</v>
       </c>
       <c r="J489" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="K489" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L489" s="2">
         <v>3</v>
@@ -32857,10 +32848,10 @@
         <v>438</v>
       </c>
       <c r="J490" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="K490" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L490" s="2">
         <v>4</v>
@@ -32907,10 +32898,10 @@
         <v>14</v>
       </c>
       <c r="J491" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="K491" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L491" s="2">
         <v>5</v>
@@ -32957,10 +32948,10 @@
         <v>182</v>
       </c>
       <c r="J492" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="K492" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L492" s="2">
         <v>3</v>
@@ -33007,10 +32998,10 @@
         <v>14</v>
       </c>
       <c r="J493" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="K493" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L493" s="2">
         <v>4</v>
@@ -33057,10 +33048,10 @@
         <v>14</v>
       </c>
       <c r="J494" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="K494" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L494" s="2">
         <v>4</v>
@@ -33107,10 +33098,10 @@
         <v>14</v>
       </c>
       <c r="J495" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="K495" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L495" s="2">
         <v>3</v>
@@ -33157,10 +33148,10 @@
         <v>14</v>
       </c>
       <c r="J496" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="K496" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L496" s="2">
         <v>2</v>
@@ -33207,10 +33198,10 @@
         <v>14</v>
       </c>
       <c r="J497" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="K497" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L497" s="2">
         <v>3</v>
@@ -33257,10 +33248,10 @@
         <v>182</v>
       </c>
       <c r="J498" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="K498" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L498" s="2">
         <v>4</v>
@@ -33307,10 +33298,10 @@
         <v>14</v>
       </c>
       <c r="J499" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="K499" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L499" s="2">
         <v>4</v>
@@ -33357,10 +33348,10 @@
         <v>438</v>
       </c>
       <c r="J500" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="K500" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L500" s="2">
         <v>4</v>
@@ -33407,10 +33398,10 @@
         <v>14</v>
       </c>
       <c r="J501" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="K501" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L501" s="2">
         <v>3</v>
@@ -33457,10 +33448,10 @@
         <v>14</v>
       </c>
       <c r="J502" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="K502" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L502" s="2">
         <v>3</v>
@@ -33507,10 +33498,10 @@
         <v>14</v>
       </c>
       <c r="J503" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="K503" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L503" s="2">
         <v>3</v>
@@ -33557,10 +33548,10 @@
         <v>14</v>
       </c>
       <c r="J504" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="K504" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L504" s="2">
         <v>3</v>
@@ -33607,10 +33598,10 @@
         <v>182</v>
       </c>
       <c r="J505" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="K505" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L505" s="2">
         <v>3</v>
@@ -33657,10 +33648,10 @@
         <v>14</v>
       </c>
       <c r="J506" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="K506" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L506" s="2">
         <v>3</v>
@@ -33707,10 +33698,10 @@
         <v>14</v>
       </c>
       <c r="J507" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="K507" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L507" s="2">
         <v>4</v>
@@ -33757,10 +33748,10 @@
         <v>14</v>
       </c>
       <c r="J508" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="K508" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L508" s="2">
         <v>4</v>
@@ -33807,10 +33798,10 @@
         <v>14</v>
       </c>
       <c r="J509" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="K509" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L509" s="2">
         <v>3</v>
@@ -33857,10 +33848,10 @@
         <v>438</v>
       </c>
       <c r="J510" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="K510" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L510" s="2">
         <v>5</v>
@@ -33907,10 +33898,10 @@
         <v>14</v>
       </c>
       <c r="J511" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="K511" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L511" s="2">
         <v>4</v>
@@ -33957,10 +33948,10 @@
         <v>14</v>
       </c>
       <c r="J512" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="K512" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L512" s="2">
         <v>4</v>
@@ -34007,10 +33998,10 @@
         <v>182</v>
       </c>
       <c r="J513" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="K513" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L513" s="2">
         <v>3</v>
@@ -34057,10 +34048,10 @@
         <v>14</v>
       </c>
       <c r="J514" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K514" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L514" s="2">
         <v>4</v>
@@ -34107,10 +34098,10 @@
         <v>14</v>
       </c>
       <c r="J515" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="K515" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L515" s="2">
         <v>3</v>
@@ -34157,10 +34148,10 @@
         <v>14</v>
       </c>
       <c r="J516" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="K516" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L516" s="2">
         <v>3</v>
@@ -34207,10 +34198,10 @@
         <v>438</v>
       </c>
       <c r="J517" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="K517" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L517" s="2">
         <v>4</v>
@@ -34257,10 +34248,10 @@
         <v>14</v>
       </c>
       <c r="J518" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="K518" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L518" s="2">
         <v>5</v>
@@ -34307,10 +34298,10 @@
         <v>14</v>
       </c>
       <c r="J519" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="K519" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L519" s="2">
         <v>4</v>
@@ -34357,10 +34348,10 @@
         <v>14</v>
       </c>
       <c r="J520" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="K520" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L520" s="2">
         <v>4</v>
@@ -34407,10 +34398,10 @@
         <v>14</v>
       </c>
       <c r="J521" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="K521" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L521" s="2">
         <v>3</v>
@@ -34457,10 +34448,10 @@
         <v>14</v>
       </c>
       <c r="J522" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="K522" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L522" s="2">
         <v>2</v>
@@ -34507,10 +34498,10 @@
         <v>14</v>
       </c>
       <c r="J523" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="K523" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L523" s="2">
         <v>3</v>
@@ -34557,10 +34548,10 @@
         <v>182</v>
       </c>
       <c r="J524" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="K524" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L524" s="2">
         <v>4</v>
@@ -34607,10 +34598,10 @@
         <v>14</v>
       </c>
       <c r="J525" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="K525" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L525" s="2">
         <v>4</v>
@@ -34657,10 +34648,10 @@
         <v>14</v>
       </c>
       <c r="J526" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="K526" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L526" s="2">
         <v>5</v>
@@ -34707,10 +34698,10 @@
         <v>14</v>
       </c>
       <c r="J527" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="K527" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L527" s="2">
         <v>3</v>
@@ -34757,10 +34748,10 @@
         <v>14</v>
       </c>
       <c r="J528" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="K528" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L528" s="2">
         <v>3</v>
@@ -34807,10 +34798,10 @@
         <v>14</v>
       </c>
       <c r="J529" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="K529" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L529" s="2">
         <v>4</v>
@@ -34857,10 +34848,10 @@
         <v>14</v>
       </c>
       <c r="J530" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="K530" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L530" s="2">
         <v>4</v>
@@ -34907,10 +34898,10 @@
         <v>182</v>
       </c>
       <c r="J531" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="K531" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L531" s="2">
         <v>3</v>
@@ -34957,10 +34948,10 @@
         <v>14</v>
       </c>
       <c r="J532" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="K532" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L532" s="2">
         <v>4</v>
@@ -35007,10 +34998,10 @@
         <v>14</v>
       </c>
       <c r="J533" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="K533" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L533" s="2">
         <v>5</v>
@@ -35057,10 +35048,10 @@
         <v>14</v>
       </c>
       <c r="J534" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="K534" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L534" s="2">
         <v>4</v>
@@ -35107,10 +35098,10 @@
         <v>14</v>
       </c>
       <c r="J535" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="K535" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L535" s="2">
         <v>4</v>
@@ -35157,10 +35148,10 @@
         <v>14</v>
       </c>
       <c r="J536" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="K536" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L536" s="2">
         <v>2</v>
@@ -35207,10 +35198,10 @@
         <v>14</v>
       </c>
       <c r="J537" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="K537" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L537" s="2">
         <v>5</v>
@@ -35257,10 +35248,10 @@
         <v>14</v>
       </c>
       <c r="J538" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="K538" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L538" s="2">
         <v>4</v>
@@ -35307,10 +35298,10 @@
         <v>14</v>
       </c>
       <c r="J539" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="K539" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L539" s="2">
         <v>5</v>
@@ -35357,10 +35348,10 @@
         <v>14</v>
       </c>
       <c r="J540" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="K540" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L540" s="2">
         <v>3</v>
@@ -35407,10 +35398,10 @@
         <v>14</v>
       </c>
       <c r="J541" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="K541" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L541" s="2">
         <v>4</v>
@@ -35457,10 +35448,10 @@
         <v>14</v>
       </c>
       <c r="J542" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="K542" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L542" s="2">
         <v>1</v>
@@ -35507,10 +35498,10 @@
         <v>14</v>
       </c>
       <c r="J543" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="K543" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L543" s="2">
         <v>3</v>
@@ -35557,10 +35548,10 @@
         <v>14</v>
       </c>
       <c r="J544" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="K544" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L544" s="2">
         <v>4</v>
@@ -35607,10 +35598,10 @@
         <v>14</v>
       </c>
       <c r="J545" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="K545" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L545" s="2">
         <v>4</v>
@@ -35657,10 +35648,10 @@
         <v>14</v>
       </c>
       <c r="J546" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="K546" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L546" s="2">
         <v>5</v>
@@ -35707,10 +35698,10 @@
         <v>14</v>
       </c>
       <c r="J547" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="K547" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L547" s="2">
         <v>5</v>
@@ -35757,10 +35748,10 @@
         <v>14</v>
       </c>
       <c r="J548" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="K548" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L548" s="2">
         <v>4</v>
@@ -35807,10 +35798,10 @@
         <v>14</v>
       </c>
       <c r="J549" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="K549" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L549" s="2">
         <v>2</v>
@@ -35857,10 +35848,10 @@
         <v>14</v>
       </c>
       <c r="J550" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="K550" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L550" s="2">
         <v>3</v>
@@ -35907,10 +35898,10 @@
         <v>14</v>
       </c>
       <c r="J551" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="K551" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L551" s="2">
         <v>3</v>
@@ -35957,10 +35948,10 @@
         <v>14</v>
       </c>
       <c r="J552" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="K552" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L552" s="2">
         <v>2</v>
@@ -36007,10 +35998,10 @@
         <v>14</v>
       </c>
       <c r="J553" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="K553" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L553" s="2">
         <v>2</v>
@@ -36057,10 +36048,10 @@
         <v>14</v>
       </c>
       <c r="J554" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="K554" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L554" s="2">
         <v>3</v>
@@ -36107,10 +36098,10 @@
         <v>14</v>
       </c>
       <c r="J555" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="K555" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L555" s="2">
         <v>3</v>
@@ -36157,10 +36148,10 @@
         <v>14</v>
       </c>
       <c r="J556" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="K556" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L556" s="2">
         <v>3</v>
@@ -36207,10 +36198,10 @@
         <v>14</v>
       </c>
       <c r="J557" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="K557" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L557" s="2">
         <v>4</v>
@@ -36257,10 +36248,10 @@
         <v>14</v>
       </c>
       <c r="J558" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="K558" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L558" s="2">
         <v>3</v>
@@ -36307,10 +36298,10 @@
         <v>14</v>
       </c>
       <c r="J559" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="K559" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L559" s="2">
         <v>5</v>
@@ -36357,10 +36348,10 @@
         <v>14</v>
       </c>
       <c r="J560" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="K560" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L560" s="2">
         <v>4</v>
@@ -36407,10 +36398,10 @@
         <v>14</v>
       </c>
       <c r="J561" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="K561" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L561" s="2">
         <v>3</v>
@@ -36457,10 +36448,10 @@
         <v>14</v>
       </c>
       <c r="J562" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="K562" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L562" s="2">
         <v>3</v>
@@ -36507,10 +36498,10 @@
         <v>14</v>
       </c>
       <c r="J563" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="K563" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L563" s="2">
         <v>4</v>
@@ -36557,10 +36548,10 @@
         <v>14</v>
       </c>
       <c r="J564" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="K564" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L564" s="2">
         <v>5</v>
@@ -36607,10 +36598,10 @@
         <v>14</v>
       </c>
       <c r="J565" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="K565" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L565" s="2">
         <v>2</v>
@@ -36657,10 +36648,10 @@
         <v>14</v>
       </c>
       <c r="J566" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K566" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L566" s="2">
         <v>4</v>
@@ -36707,10 +36698,10 @@
         <v>14</v>
       </c>
       <c r="J567" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="K567" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L567" s="2">
         <v>3</v>
@@ -36757,10 +36748,10 @@
         <v>14</v>
       </c>
       <c r="J568" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="K568" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L568" s="2">
         <v>4</v>
@@ -36807,10 +36798,10 @@
         <v>14</v>
       </c>
       <c r="J569" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="K569" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L569" s="2">
         <v>4</v>
@@ -36857,10 +36848,10 @@
         <v>14</v>
       </c>
       <c r="J570" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="K570" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L570" s="2">
         <v>3</v>
@@ -36907,10 +36898,10 @@
         <v>14</v>
       </c>
       <c r="J571" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="K571" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L571" s="2">
         <v>4</v>
@@ -36957,10 +36948,10 @@
         <v>14</v>
       </c>
       <c r="J572" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="K572" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L572" s="2">
         <v>3</v>
@@ -37007,10 +36998,10 @@
         <v>14</v>
       </c>
       <c r="J573" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="K573" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L573" s="2">
         <v>3</v>
@@ -37057,10 +37048,10 @@
         <v>14</v>
       </c>
       <c r="J574" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="K574" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L574" s="2">
         <v>3</v>
@@ -37107,10 +37098,10 @@
         <v>14</v>
       </c>
       <c r="J575" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="K575" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L575" s="2">
         <v>2</v>
@@ -37157,10 +37148,10 @@
         <v>14</v>
       </c>
       <c r="J576" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="K576" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L576" s="2">
         <v>2</v>
@@ -37207,10 +37198,10 @@
         <v>14</v>
       </c>
       <c r="J577" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="K577" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L577" s="2">
         <v>2</v>
@@ -37257,10 +37248,10 @@
         <v>14</v>
       </c>
       <c r="J578" t="s">
+        <v>2472</v>
+      </c>
+      <c r="K578" t="s">
         <v>2475</v>
-      </c>
-      <c r="K578" t="s">
-        <v>2478</v>
       </c>
       <c r="L578" s="2">
         <v>3</v>
@@ -37307,10 +37298,10 @@
         <v>14</v>
       </c>
       <c r="J579" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="K579" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L579" s="2">
         <v>2</v>
@@ -37357,10 +37348,10 @@
         <v>14</v>
       </c>
       <c r="J580" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="K580" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L580" s="2">
         <v>5</v>
@@ -37407,10 +37398,10 @@
         <v>14</v>
       </c>
       <c r="J581" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="K581" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L581" s="2">
         <v>4</v>
@@ -37457,10 +37448,10 @@
         <v>14</v>
       </c>
       <c r="J582" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="K582" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L582" s="2">
         <v>3</v>
@@ -37507,10 +37498,10 @@
         <v>14</v>
       </c>
       <c r="J583" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="K583" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L583" s="2">
         <v>3</v>
@@ -37557,10 +37548,10 @@
         <v>14</v>
       </c>
       <c r="J584" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="K584" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L584" s="2">
         <v>5</v>
@@ -37607,10 +37598,10 @@
         <v>14</v>
       </c>
       <c r="J585" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="K585" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L585" s="2">
         <v>3</v>
@@ -37657,10 +37648,10 @@
         <v>14</v>
       </c>
       <c r="J586" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="K586" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L586" s="2">
         <v>4</v>
@@ -37707,10 +37698,10 @@
         <v>14</v>
       </c>
       <c r="J587" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="K587" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L587" s="2">
         <v>3</v>
@@ -37757,10 +37748,10 @@
         <v>14</v>
       </c>
       <c r="J588" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="K588" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L588" s="2">
         <v>5</v>
@@ -37807,10 +37798,10 @@
         <v>14</v>
       </c>
       <c r="J589" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="K589" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L589" s="2">
         <v>4</v>
@@ -37857,10 +37848,10 @@
         <v>14</v>
       </c>
       <c r="J590" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="K590" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L590" s="2">
         <v>3</v>
@@ -37907,10 +37898,10 @@
         <v>14</v>
       </c>
       <c r="J591" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K591" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L591" s="2">
         <v>4</v>
@@ -37957,10 +37948,10 @@
         <v>14</v>
       </c>
       <c r="J592" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="K592" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L592" s="2">
         <v>3</v>
@@ -38007,10 +37998,10 @@
         <v>14</v>
       </c>
       <c r="J593" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="K593" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L593" s="2">
         <v>3</v>
@@ -38057,10 +38048,10 @@
         <v>14</v>
       </c>
       <c r="J594" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="K594" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L594" s="2">
         <v>4</v>
@@ -38107,10 +38098,10 @@
         <v>14</v>
       </c>
       <c r="J595" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="K595" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L595" s="2">
         <v>5</v>
@@ -38157,10 +38148,10 @@
         <v>14</v>
       </c>
       <c r="J596" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="K596" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L596" s="2">
         <v>3</v>
@@ -38207,10 +38198,10 @@
         <v>14</v>
       </c>
       <c r="J597" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K597" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L597" s="2">
         <v>4</v>
@@ -38257,10 +38248,10 @@
         <v>14</v>
       </c>
       <c r="J598" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="K598" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L598" s="2">
         <v>3</v>
@@ -38307,10 +38298,10 @@
         <v>14</v>
       </c>
       <c r="J599" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="K599" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L599" s="2">
         <v>3</v>
@@ -38357,10 +38348,10 @@
         <v>14</v>
       </c>
       <c r="J600" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="K600" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L600" s="2">
         <v>4</v>
@@ -38407,10 +38398,10 @@
         <v>14</v>
       </c>
       <c r="J601" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="K601" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L601" s="2">
         <v>4</v>
@@ -38457,10 +38448,10 @@
         <v>14</v>
       </c>
       <c r="J602" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="K602" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L602" s="2">
         <v>2</v>
@@ -38507,10 +38498,10 @@
         <v>14</v>
       </c>
       <c r="J603" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="K603" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L603" s="2">
         <v>3</v>
@@ -38557,10 +38548,10 @@
         <v>14</v>
       </c>
       <c r="J604" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="K604" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L604" s="2">
         <v>5</v>
@@ -38607,10 +38598,10 @@
         <v>182</v>
       </c>
       <c r="J605" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="K605" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L605" s="2">
         <v>3</v>
@@ -38657,10 +38648,10 @@
         <v>14</v>
       </c>
       <c r="J606" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="K606" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L606" s="2">
         <v>4</v>
@@ -38707,10 +38698,10 @@
         <v>182</v>
       </c>
       <c r="J607" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="K607" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L607" s="2">
         <v>3</v>
@@ -38757,10 +38748,10 @@
         <v>14</v>
       </c>
       <c r="J608" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="K608" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L608" s="2">
         <v>4</v>
@@ -38807,10 +38798,10 @@
         <v>14</v>
       </c>
       <c r="J609" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="K609" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L609" s="2">
         <v>5</v>
@@ -38857,10 +38848,10 @@
         <v>14</v>
       </c>
       <c r="J610" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K610" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L610" s="2">
         <v>3</v>
@@ -38907,10 +38898,10 @@
         <v>182</v>
       </c>
       <c r="J611" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="K611" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L611" s="2">
         <v>3</v>
@@ -38957,10 +38948,10 @@
         <v>14</v>
       </c>
       <c r="J612" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="K612" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L612" s="2">
         <v>4</v>
@@ -39007,10 +38998,10 @@
         <v>14</v>
       </c>
       <c r="J613" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="K613" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L613" s="2">
         <v>4</v>
@@ -39057,10 +39048,10 @@
         <v>14</v>
       </c>
       <c r="J614" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="K614" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L614" s="2">
         <v>4</v>
@@ -39107,10 +39098,10 @@
         <v>14</v>
       </c>
       <c r="J615" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="K615" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L615" s="2">
         <v>4</v>
@@ -39157,10 +39148,10 @@
         <v>14</v>
       </c>
       <c r="J616" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="K616" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L616" s="2">
         <v>3</v>
@@ -39207,10 +39198,10 @@
         <v>14</v>
       </c>
       <c r="J617" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K617" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L617" s="2">
         <v>3</v>
@@ -39257,10 +39248,10 @@
         <v>14</v>
       </c>
       <c r="J618" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K618" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L618" s="2">
         <v>4</v>
@@ -39307,10 +39298,10 @@
         <v>14</v>
       </c>
       <c r="J619" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K619" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L619" s="2">
         <v>5</v>
@@ -39357,10 +39348,10 @@
         <v>14</v>
       </c>
       <c r="J620" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="K620" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L620" s="2">
         <v>2</v>
@@ -39407,10 +39398,10 @@
         <v>14</v>
       </c>
       <c r="J621" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="K621" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L621" s="2">
         <v>4</v>
@@ -39457,10 +39448,10 @@
         <v>182</v>
       </c>
       <c r="J622" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="K622" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L622" s="2">
         <v>3</v>
@@ -39507,10 +39498,10 @@
         <v>14</v>
       </c>
       <c r="J623" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="K623" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L623" s="2">
         <v>2</v>
@@ -39557,10 +39548,10 @@
         <v>14</v>
       </c>
       <c r="J624" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="K624" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L624" s="2">
         <v>3</v>
@@ -39607,10 +39598,10 @@
         <v>14</v>
       </c>
       <c r="J625" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="K625" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L625" s="2">
         <v>4</v>
@@ -39657,10 +39648,10 @@
         <v>14</v>
       </c>
       <c r="J626" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="K626" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L626" s="2">
         <v>3</v>
@@ -39707,10 +39698,10 @@
         <v>14</v>
       </c>
       <c r="J627" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="K627" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L627" s="2">
         <v>4</v>
@@ -39757,10 +39748,10 @@
         <v>14</v>
       </c>
       <c r="J628" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="K628" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L628" s="2">
         <v>4</v>
@@ -39807,10 +39798,10 @@
         <v>14</v>
       </c>
       <c r="J629" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="K629" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L629" s="2">
         <v>5</v>
@@ -39857,10 +39848,10 @@
         <v>182</v>
       </c>
       <c r="J630" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="K630" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L630" s="2">
         <v>3</v>
@@ -39907,10 +39898,10 @@
         <v>14</v>
       </c>
       <c r="J631" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="K631" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L631" s="2">
         <v>3</v>
@@ -39957,10 +39948,10 @@
         <v>14</v>
       </c>
       <c r="J632" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="K632" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L632" s="2">
         <v>2</v>
@@ -40007,10 +39998,10 @@
         <v>14</v>
       </c>
       <c r="J633" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="K633" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L633" s="2">
         <v>4</v>
@@ -40057,10 +40048,10 @@
         <v>14</v>
       </c>
       <c r="J634" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="K634" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L634" s="2">
         <v>4</v>
@@ -40107,10 +40098,10 @@
         <v>14</v>
       </c>
       <c r="J635" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="K635" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L635" s="2">
         <v>4</v>
@@ -40157,10 +40148,10 @@
         <v>14</v>
       </c>
       <c r="J636" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="K636" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L636" s="2">
         <v>3</v>
@@ -40207,10 +40198,10 @@
         <v>14</v>
       </c>
       <c r="J637" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="K637" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L637" s="2">
         <v>5</v>
@@ -40257,10 +40248,10 @@
         <v>14</v>
       </c>
       <c r="J638" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="K638" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L638" s="2">
         <v>4</v>
@@ -40307,10 +40298,10 @@
         <v>14</v>
       </c>
       <c r="J639" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="K639" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L639" s="2">
         <v>5</v>
@@ -40357,10 +40348,10 @@
         <v>182</v>
       </c>
       <c r="J640" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="K640" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L640" s="2">
         <v>3</v>
@@ -40407,10 +40398,10 @@
         <v>14</v>
       </c>
       <c r="J641" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="K641" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L641" s="2">
         <v>4</v>
@@ -40457,10 +40448,10 @@
         <v>14</v>
       </c>
       <c r="J642" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="K642" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L642" s="2">
         <v>4</v>
@@ -40507,10 +40498,10 @@
         <v>182</v>
       </c>
       <c r="J643" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="K643" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L643" s="2">
         <v>3</v>
@@ -40557,10 +40548,10 @@
         <v>14</v>
       </c>
       <c r="J644" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="K644" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L644" s="2">
         <v>4</v>
@@ -40607,10 +40598,10 @@
         <v>14</v>
       </c>
       <c r="J645" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="K645" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L645" s="2">
         <v>5</v>
@@ -40657,10 +40648,10 @@
         <v>14</v>
       </c>
       <c r="J646" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="K646" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L646" s="2">
         <v>4</v>
@@ -40707,10 +40698,10 @@
         <v>14</v>
       </c>
       <c r="J647" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="K647" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L647" s="2">
         <v>4</v>
@@ -40757,10 +40748,10 @@
         <v>182</v>
       </c>
       <c r="J648" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="K648" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L648" s="2">
         <v>3</v>
@@ -40807,10 +40798,10 @@
         <v>14</v>
       </c>
       <c r="J649" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="K649" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L649" s="2">
         <v>3</v>
@@ -40857,10 +40848,10 @@
         <v>14</v>
       </c>
       <c r="J650" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="K650" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L650" s="2">
         <v>5</v>
@@ -40907,10 +40898,10 @@
         <v>14</v>
       </c>
       <c r="J651" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="K651" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L651" s="2">
         <v>4</v>
@@ -40957,10 +40948,10 @@
         <v>14</v>
       </c>
       <c r="J652" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="K652" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L652" s="2">
         <v>3</v>
@@ -41007,10 +40998,10 @@
         <v>14</v>
       </c>
       <c r="J653" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="K653" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L653" s="2">
         <v>4</v>
@@ -41057,10 +41048,10 @@
         <v>14</v>
       </c>
       <c r="J654" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="K654" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L654" s="2">
         <v>4</v>
@@ -41107,10 +41098,10 @@
         <v>14</v>
       </c>
       <c r="J655" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K655" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L655" s="2">
         <v>5</v>
@@ -41157,10 +41148,10 @@
         <v>14</v>
       </c>
       <c r="J656" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="K656" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L656" s="2">
         <v>3</v>
@@ -41207,10 +41198,10 @@
         <v>14</v>
       </c>
       <c r="J657" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="K657" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L657" s="2">
         <v>5</v>
@@ -41257,10 +41248,10 @@
         <v>182</v>
       </c>
       <c r="J658" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="K658" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L658" s="2">
         <v>3</v>
@@ -41307,10 +41298,10 @@
         <v>14</v>
       </c>
       <c r="J659" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K659" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L659" s="2">
         <v>4</v>
@@ -41357,10 +41348,10 @@
         <v>14</v>
       </c>
       <c r="J660" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="K660" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L660" s="2">
         <v>5</v>
@@ -41407,10 +41398,10 @@
         <v>14</v>
       </c>
       <c r="J661" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="K661" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L661" s="2">
         <v>5</v>
@@ -41457,10 +41448,10 @@
         <v>14</v>
       </c>
       <c r="J662" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="K662" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L662" s="2">
         <v>3</v>
@@ -41507,10 +41498,10 @@
         <v>14</v>
       </c>
       <c r="J663" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="K663" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L663" s="2">
         <v>5</v>
@@ -41557,10 +41548,10 @@
         <v>14</v>
       </c>
       <c r="J664" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="K664" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L664" s="2">
         <v>4</v>
@@ -41607,10 +41598,10 @@
         <v>438</v>
       </c>
       <c r="J665" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="K665" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L665" s="2">
         <v>5</v>
@@ -41657,10 +41648,10 @@
         <v>438</v>
       </c>
       <c r="J666" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="K666" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L666" s="2">
         <v>5</v>
@@ -41707,10 +41698,10 @@
         <v>438</v>
       </c>
       <c r="J667" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="K667" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L667" s="2">
         <v>4</v>
@@ -41757,10 +41748,10 @@
         <v>438</v>
       </c>
       <c r="J668" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="K668" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L668" s="2">
         <v>3</v>
@@ -41807,10 +41798,10 @@
         <v>438</v>
       </c>
       <c r="J669" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="K669" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L669" s="2">
         <v>4</v>
@@ -41857,10 +41848,10 @@
         <v>438</v>
       </c>
       <c r="J670" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="K670" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L670" s="2">
         <v>5</v>
@@ -41907,10 +41898,10 @@
         <v>438</v>
       </c>
       <c r="J671" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="K671" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L671" s="2">
         <v>4</v>
@@ -41957,10 +41948,10 @@
         <v>438</v>
       </c>
       <c r="J672" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="K672" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L672" s="2">
         <v>5</v>
@@ -42007,10 +41998,10 @@
         <v>438</v>
       </c>
       <c r="J673" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="K673" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L673" s="2">
         <v>4</v>
@@ -42057,10 +42048,10 @@
         <v>438</v>
       </c>
       <c r="J674" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="K674" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L674" s="2">
         <v>5</v>
@@ -42107,10 +42098,10 @@
         <v>438</v>
       </c>
       <c r="J675" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="K675" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L675" s="2">
         <v>3</v>
@@ -42157,10 +42148,10 @@
         <v>438</v>
       </c>
       <c r="J676" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="K676" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L676" s="2">
         <v>4</v>
@@ -42207,10 +42198,10 @@
         <v>438</v>
       </c>
       <c r="J677" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="K677" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L677" s="2">
         <v>5</v>
@@ -42257,10 +42248,10 @@
         <v>438</v>
       </c>
       <c r="J678" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="K678" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L678" s="2">
         <v>4</v>
@@ -42307,10 +42298,10 @@
         <v>438</v>
       </c>
       <c r="J679" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="K679" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L679" s="2">
         <v>5</v>
@@ -42357,10 +42348,10 @@
         <v>438</v>
       </c>
       <c r="J680" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="K680" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L680" s="2">
         <v>3</v>
@@ -42407,10 +42398,10 @@
         <v>438</v>
       </c>
       <c r="J681" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="K681" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L681" s="2">
         <v>4</v>
@@ -42457,10 +42448,10 @@
         <v>438</v>
       </c>
       <c r="J682" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="K682" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L682" s="2">
         <v>5</v>
@@ -42507,10 +42498,10 @@
         <v>438</v>
       </c>
       <c r="J683" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="K683" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L683" s="2">
         <v>3</v>
@@ -42557,10 +42548,10 @@
         <v>438</v>
       </c>
       <c r="J684" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K684" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L684" s="2">
         <v>5</v>
@@ -42607,10 +42598,10 @@
         <v>438</v>
       </c>
       <c r="J685" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="K685" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L685" s="2">
         <v>3</v>
@@ -42657,10 +42648,10 @@
         <v>438</v>
       </c>
       <c r="J686" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="K686" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L686" s="2">
         <v>4</v>
@@ -42707,10 +42698,10 @@
         <v>438</v>
       </c>
       <c r="J687" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="K687" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L687" s="2">
         <v>5</v>
@@ -42757,10 +42748,10 @@
         <v>438</v>
       </c>
       <c r="J688" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="K688" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L688" s="2">
         <v>4</v>
@@ -42807,10 +42798,10 @@
         <v>438</v>
       </c>
       <c r="J689" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="K689" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L689" s="2">
         <v>4</v>
@@ -42857,10 +42848,10 @@
         <v>438</v>
       </c>
       <c r="J690" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="K690" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L690" s="2">
         <v>4</v>
@@ -42907,10 +42898,10 @@
         <v>438</v>
       </c>
       <c r="J691" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="K691" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L691" s="2">
         <v>5</v>
@@ -42957,10 +42948,10 @@
         <v>438</v>
       </c>
       <c r="J692" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="K692" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L692" s="2">
         <v>4</v>
@@ -43007,10 +42998,10 @@
         <v>438</v>
       </c>
       <c r="J693" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="K693" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L693" s="2">
         <v>4</v>
@@ -43057,10 +43048,10 @@
         <v>438</v>
       </c>
       <c r="J694" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="K694" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L694" s="2">
         <v>5</v>
@@ -43107,10 +43098,10 @@
         <v>438</v>
       </c>
       <c r="J695" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="K695" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L695" s="2">
         <v>3</v>
@@ -43157,10 +43148,10 @@
         <v>438</v>
       </c>
       <c r="J696" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="K696" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L696" s="2">
         <v>5</v>
@@ -43207,10 +43198,10 @@
         <v>438</v>
       </c>
       <c r="J697" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="K697" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L697" s="2">
         <v>4</v>
@@ -43257,10 +43248,10 @@
         <v>438</v>
       </c>
       <c r="J698" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="K698" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L698" s="2">
         <v>3</v>
@@ -43307,10 +43298,10 @@
         <v>438</v>
       </c>
       <c r="J699" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="K699" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L699" s="2">
         <v>4</v>
@@ -43357,10 +43348,10 @@
         <v>438</v>
       </c>
       <c r="J700" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="K700" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L700" s="2">
         <v>4</v>
@@ -43407,10 +43398,10 @@
         <v>438</v>
       </c>
       <c r="J701" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="K701" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L701" s="2">
         <v>5</v>
@@ -43457,10 +43448,10 @@
         <v>438</v>
       </c>
       <c r="J702" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="K702" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L702" s="2">
         <v>5</v>
@@ -43507,10 +43498,10 @@
         <v>438</v>
       </c>
       <c r="J703" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="K703" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L703" s="2">
         <v>4</v>
@@ -43557,10 +43548,10 @@
         <v>438</v>
       </c>
       <c r="J704" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="K704" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L704" s="2">
         <v>5</v>
@@ -43607,10 +43598,10 @@
         <v>438</v>
       </c>
       <c r="J705" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="K705" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L705" s="2">
         <v>3</v>
@@ -43657,10 +43648,10 @@
         <v>438</v>
       </c>
       <c r="J706" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="K706" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L706" s="2">
         <v>5</v>
@@ -43707,10 +43698,10 @@
         <v>438</v>
       </c>
       <c r="J707" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="K707" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L707" s="2">
         <v>3</v>
@@ -43757,10 +43748,10 @@
         <v>438</v>
       </c>
       <c r="J708" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="K708" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L708" s="2">
         <v>4</v>
@@ -43807,10 +43798,10 @@
         <v>438</v>
       </c>
       <c r="J709" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="K709" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L709" s="2">
         <v>5</v>
@@ -43857,10 +43848,10 @@
         <v>438</v>
       </c>
       <c r="J710" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="K710" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L710" s="2">
         <v>4</v>
@@ -43907,10 +43898,10 @@
         <v>438</v>
       </c>
       <c r="J711" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="K711" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L711" s="2">
         <v>5</v>
@@ -43957,10 +43948,10 @@
         <v>438</v>
       </c>
       <c r="J712" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="K712" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L712" s="2">
         <v>4</v>
@@ -44007,10 +43998,10 @@
         <v>438</v>
       </c>
       <c r="J713" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="K713" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L713" s="2">
         <v>3</v>
@@ -44057,10 +44048,10 @@
         <v>438</v>
       </c>
       <c r="J714" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="K714" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L714" s="2">
         <v>4</v>
@@ -44107,10 +44098,10 @@
         <v>438</v>
       </c>
       <c r="J715" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="K715" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L715" s="2">
         <v>4</v>
@@ -44157,10 +44148,10 @@
         <v>438</v>
       </c>
       <c r="J716" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="K716" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L716" s="2">
         <v>5</v>
@@ -44207,10 +44198,10 @@
         <v>438</v>
       </c>
       <c r="J717" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="K717" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L717" s="2">
         <v>5</v>
@@ -44257,10 +44248,10 @@
         <v>438</v>
       </c>
       <c r="J718" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="K718" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L718" s="2">
         <v>3</v>
@@ -44307,10 +44298,10 @@
         <v>438</v>
       </c>
       <c r="J719" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="K719" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L719" s="2">
         <v>4</v>
@@ -44357,10 +44348,10 @@
         <v>438</v>
       </c>
       <c r="J720" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="K720" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L720" s="2">
         <v>5</v>
@@ -44407,10 +44398,10 @@
         <v>438</v>
       </c>
       <c r="J721" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="K721" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L721" s="2">
         <v>3</v>
@@ -44457,10 +44448,10 @@
         <v>438</v>
       </c>
       <c r="J722" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="K722" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L722" s="2">
         <v>5</v>
@@ -44507,10 +44498,10 @@
         <v>438</v>
       </c>
       <c r="J723" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="K723" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L723" s="2">
         <v>4</v>
@@ -44557,10 +44548,10 @@
         <v>438</v>
       </c>
       <c r="J724" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="K724" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L724" s="2">
         <v>3</v>
@@ -44607,10 +44598,10 @@
         <v>438</v>
       </c>
       <c r="J725" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="K725" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L725" s="2">
         <v>3</v>
@@ -44657,10 +44648,10 @@
         <v>438</v>
       </c>
       <c r="J726" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="K726" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L726" s="2">
         <v>4</v>
@@ -44707,10 +44698,10 @@
         <v>438</v>
       </c>
       <c r="J727" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="K727" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L727" s="2">
         <v>4</v>
@@ -44757,10 +44748,10 @@
         <v>438</v>
       </c>
       <c r="J728" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="K728" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L728" s="2">
         <v>5</v>
@@ -44807,10 +44798,10 @@
         <v>438</v>
       </c>
       <c r="J729" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="K729" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L729" s="2">
         <v>5</v>
@@ -44857,10 +44848,10 @@
         <v>438</v>
       </c>
       <c r="J730" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="K730" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L730" s="2">
         <v>4</v>
@@ -44907,10 +44898,10 @@
         <v>438</v>
       </c>
       <c r="J731" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="K731" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L731" s="2">
         <v>5</v>
@@ -44957,10 +44948,10 @@
         <v>438</v>
       </c>
       <c r="J732" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="K732" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L732" s="2">
         <v>4</v>
@@ -45007,10 +44998,10 @@
         <v>438</v>
       </c>
       <c r="J733" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="K733" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L733" s="2">
         <v>3</v>
@@ -45057,10 +45048,10 @@
         <v>438</v>
       </c>
       <c r="J734" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="K734" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L734" s="2">
         <v>4</v>
@@ -45107,10 +45098,10 @@
         <v>438</v>
       </c>
       <c r="J735" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="K735" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L735" s="2">
         <v>5</v>
@@ -45157,10 +45148,10 @@
         <v>438</v>
       </c>
       <c r="J736" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="K736" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="L736" s="2">
         <v>3</v>
@@ -45207,10 +45198,10 @@
         <v>438</v>
       </c>
       <c r="J737" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="K737" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L737" s="2">
         <v>4</v>
@@ -45257,10 +45248,10 @@
         <v>438</v>
       </c>
       <c r="J738" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="K738" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L738" s="2">
         <v>4</v>
@@ -45307,10 +45298,10 @@
         <v>438</v>
       </c>
       <c r="J739" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="K739" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L739" s="2">
         <v>5</v>
@@ -45357,10 +45348,10 @@
         <v>438</v>
       </c>
       <c r="J740" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="K740" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L740" s="2">
         <v>5</v>
@@ -45407,10 +45398,10 @@
         <v>438</v>
       </c>
       <c r="J741" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="K741" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L741" s="2">
         <v>5</v>
@@ -45457,10 +45448,10 @@
         <v>438</v>
       </c>
       <c r="J742" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="K742" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L742" s="2">
         <v>3</v>
@@ -45507,10 +45498,10 @@
         <v>438</v>
       </c>
       <c r="J743" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="K743" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L743" s="2">
         <v>4</v>
@@ -45557,10 +45548,10 @@
         <v>438</v>
       </c>
       <c r="J744" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="K744" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L744" s="2">
         <v>5</v>
@@ -45607,10 +45598,10 @@
         <v>438</v>
       </c>
       <c r="J745" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="K745" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L745" s="2">
         <v>3</v>
@@ -45657,10 +45648,10 @@
         <v>438</v>
       </c>
       <c r="J746" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="K746" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L746" s="2">
         <v>5</v>
@@ -45707,10 +45698,10 @@
         <v>438</v>
       </c>
       <c r="J747" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="K747" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="L747" s="2">
         <v>4</v>
@@ -45757,10 +45748,10 @@
         <v>438</v>
       </c>
       <c r="J748" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K748" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L748" s="2">
         <v>3</v>
@@ -45807,10 +45798,10 @@
         <v>438</v>
       </c>
       <c r="J749" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="K749" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L749" s="2">
         <v>3</v>
@@ -45857,10 +45848,10 @@
         <v>438</v>
       </c>
       <c r="J750" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="K750" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="L750" s="2">
         <v>4</v>
@@ -45907,10 +45898,10 @@
         <v>438</v>
       </c>
       <c r="J751" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="K751" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="L751" s="2">
         <v>4</v>
@@ -45925,56 +45916,6 @@
         <v>2</v>
       </c>
       <c r="P751" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="752" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A752" s="2">
-        <v>751</v>
-      </c>
-      <c r="B752" s="2" t="s">
-        <v>2317</v>
-      </c>
-      <c r="C752" s="2" t="s">
-        <v>2319</v>
-      </c>
-      <c r="D752" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E752" s="2">
-        <v>44.99</v>
-      </c>
-      <c r="F752" s="2" t="s">
-        <v>2318</v>
-      </c>
-      <c r="G752" s="2">
-        <v>15</v>
-      </c>
-      <c r="H752" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I752" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="J752" t="s">
-        <v>2372</v>
-      </c>
-      <c r="K752" t="s">
-        <v>2478</v>
-      </c>
-      <c r="L752" s="2">
-        <v>5</v>
-      </c>
-      <c r="M752" s="2">
-        <v>4</v>
-      </c>
-      <c r="N752" s="2">
-        <v>3</v>
-      </c>
-      <c r="O752" s="2">
-        <v>2</v>
-      </c>
-      <c r="P752" s="2">
         <v>1</v>
       </c>
     </row>
